--- a/cálculos/Tablas de graduación.xlsx
+++ b/cálculos/Tablas de graduación.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Integración de cargas (2)" sheetId="13" r:id="rId1"/>
     <sheet name="Formato" sheetId="9" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId3"/>
-    <sheet name="Hotel" sheetId="14" r:id="rId4"/>
+    <sheet name="Viguitas" sheetId="14" r:id="rId4"/>
     <sheet name="Cimiento Corrido" sheetId="11" r:id="rId5"/>
     <sheet name="Hoja2" sheetId="10" r:id="rId6"/>
     <sheet name="SEAOC" sheetId="6" r:id="rId7"/>
@@ -42,7 +42,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Integración de cargas (2)'!$C$6:$L$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="392">
   <si>
     <t>No.</t>
   </si>
@@ -1044,15 +1043,6 @@
     <t>Frijol negro</t>
   </si>
   <si>
-    <t>Losa 1</t>
-  </si>
-  <si>
-    <t>Losa 2</t>
-  </si>
-  <si>
-    <t>Losa 3</t>
-  </si>
-  <si>
     <t>ex</t>
   </si>
   <si>
@@ -1153,6 +1143,90 @@
   </si>
   <si>
     <t>Losa primer nivel</t>
+  </si>
+  <si>
+    <t>Viga 1</t>
+  </si>
+  <si>
+    <t>Viga 2</t>
+  </si>
+  <si>
+    <t>Luz libre entre apoyos</t>
+  </si>
+  <si>
+    <t>ln (m)</t>
+  </si>
+  <si>
+    <t>4d (m)</t>
+  </si>
+  <si>
+    <t>d (m)</t>
+  </si>
+  <si>
+    <t>r (m)</t>
+  </si>
+  <si>
+    <t>h (m)</t>
+  </si>
+  <si>
+    <t>Chequeo</t>
+  </si>
+  <si>
+    <t>10 pulgadas (m)</t>
+  </si>
+  <si>
+    <t>0.3h (m)</t>
+  </si>
+  <si>
+    <t>Menor de las condiciones</t>
+  </si>
+  <si>
+    <t>condición (m)</t>
+  </si>
+  <si>
+    <t>Ancho de viga</t>
+  </si>
+  <si>
+    <t>Alto de viga</t>
+  </si>
+  <si>
+    <t>bw (m)</t>
+  </si>
+  <si>
+    <t>c2 (m)</t>
+  </si>
+  <si>
+    <t>0.75c1 (m)</t>
+  </si>
+  <si>
+    <t>Ancho de columna</t>
+  </si>
+  <si>
+    <t>a (m)</t>
+  </si>
+  <si>
+    <t>Chequeos de dimensiones en vigas</t>
+  </si>
+  <si>
+    <t>Condición a</t>
+  </si>
+  <si>
+    <t>Condición b</t>
+  </si>
+  <si>
+    <t>Condición c</t>
+  </si>
+  <si>
+    <t>Recubrimiento</t>
+  </si>
+  <si>
+    <t>Peralte efectivo</t>
+  </si>
+  <si>
+    <t>Condición para chequeo</t>
+  </si>
+  <si>
+    <t>Condición para chequeo 1</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;Q&quot;* #,##0.00_-;\-&quot;Q&quot;* #,##0.00_-;_-&quot;Q&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1208,6 +1282,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1321,7 +1401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -2108,13 +2188,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2341,6 +2434,19 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="35" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="37" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2348,6 +2454,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2365,47 +2483,101 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2416,67 +2588,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2494,56 +2612,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2563,28 +2678,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -2881,30 +3028,30 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="148" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="149" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="136"/>
+      <c r="F6" s="149"/>
       <c r="G6" s="112"/>
-      <c r="H6" s="134" t="s">
+      <c r="H6" s="147" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="134" t="s">
+      <c r="I6" s="147" t="s">
         <v>165</v>
       </c>
-      <c r="J6" s="134" t="s">
+      <c r="J6" s="147" t="s">
         <v>178</v>
       </c>
-      <c r="K6" s="134" t="s">
+      <c r="K6" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="148" t="s">
         <v>242</v>
       </c>
       <c r="M6" s="111"/>
@@ -2912,8 +3059,8 @@
       <c r="O6" s="111"/>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
       <c r="E7" t="s">
         <v>174</v>
       </c>
@@ -2923,11 +3070,11 @@
       <c r="G7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="135"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="148"/>
       <c r="M7" s="111"/>
       <c r="N7" s="111"/>
       <c r="O7" s="111"/>
@@ -5751,30 +5898,30 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="148" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="149" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="136"/>
+      <c r="F6" s="149"/>
       <c r="G6" s="62"/>
-      <c r="H6" s="134" t="s">
+      <c r="H6" s="147" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="134" t="s">
+      <c r="I6" s="147" t="s">
         <v>165</v>
       </c>
-      <c r="J6" s="134" t="s">
+      <c r="J6" s="147" t="s">
         <v>178</v>
       </c>
-      <c r="K6" s="134" t="s">
+      <c r="K6" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="148" t="s">
         <v>242</v>
       </c>
       <c r="M6" s="67"/>
@@ -5782,8 +5929,8 @@
       <c r="O6" s="67"/>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
       <c r="E7" t="s">
         <v>174</v>
       </c>
@@ -5793,11 +5940,11 @@
       <c r="G7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="135"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="148"/>
       <c r="M7" s="67"/>
       <c r="N7" s="67"/>
       <c r="O7" s="67"/>
@@ -8608,13 +8755,13 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="205" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="207"/>
+      <c r="B2" s="221" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="223"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="126"/>
@@ -8641,7 +8788,7 @@
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F5" s="48">
         <v>280</v>
@@ -8766,7 +8913,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C15" s="47">
         <f>F9*D13/C5</f>
@@ -8788,7 +8935,7 @@
         <v>1.9</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F16" s="132">
         <f>D16*D16</f>
@@ -8827,7 +8974,7 @@
         <v>1.1431666666666664</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F19" s="48">
         <v>0.4</v>
@@ -8971,7 +9118,7 @@
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="47" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F28" s="48">
         <f>C28/C27</f>
@@ -8988,7 +9135,7 @@
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="47" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F29" s="48">
         <f>C29/C27</f>
@@ -9039,19 +9186,19 @@
       <c r="F33" s="48"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="202" t="s">
-        <v>349</v>
-      </c>
-      <c r="C34" s="203"/>
+      <c r="B34" s="218" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="219"/>
       <c r="D34" s="128"/>
-      <c r="E34" s="202" t="s">
-        <v>350</v>
-      </c>
-      <c r="F34" s="204"/>
+      <c r="E34" s="218" t="s">
+        <v>347</v>
+      </c>
+      <c r="F34" s="220"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C35" s="47">
         <f>C31*D13*D16*(((D16-F19)/2)-(F24/2))</f>
@@ -9059,7 +9206,7 @@
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F35" s="48">
         <f>F16-(F19+F24)^2</f>
@@ -9074,7 +9221,7 @@
         <v>363.37</v>
       </c>
       <c r="M35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N35">
         <f>L35*2</f>
@@ -9093,7 +9240,7 @@
       <c r="E36" s="46"/>
       <c r="F36" s="48"/>
       <c r="M36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N36">
         <f>1.6*3*24</f>
@@ -9105,14 +9252,14 @@
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="46" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F37" s="48">
         <f>4*(F24+F19)</f>
         <v>2.7</v>
       </c>
       <c r="M37" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N37">
         <f>K35*2</f>
@@ -9120,15 +9267,15 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="202" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="203"/>
+      <c r="B38" s="218" t="s">
+        <v>348</v>
+      </c>
+      <c r="C38" s="219"/>
       <c r="D38" s="127"/>
       <c r="E38" s="46"/>
       <c r="F38" s="48"/>
       <c r="M38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N38">
         <f>N36</f>
@@ -9140,14 +9287,14 @@
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
       <c r="E39" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F39" s="48">
         <f>C31*D13*F35</f>
         <v>112.93866074108836</v>
       </c>
       <c r="M39" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N39">
         <f>2*((3.2*(15.75+15.75+7+7))-(2.4*2)-(0.8*2)-(3*1.5*0.8))</f>
@@ -9171,7 +9318,7 @@
         <v>105.60741184926366</v>
       </c>
       <c r="M40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N40">
         <f>2*((60.375*2.5)-(5*0.9*2.3)-(1.2*2.4)-(5*1.5*1.2)-(2*1.2))</f>
@@ -9185,7 +9332,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="48"/>
       <c r="M41" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N41">
         <f>2*(((32.7+3.85+2.8)*2.5)-(3*2*0.8)-(1.4*0.8)-(1*0.8)-(2*2.4)-(0.8*2.3)-(1*2.3))</f>
@@ -9204,7 +9351,7 @@
       <c r="E42" s="46"/>
       <c r="F42" s="48"/>
       <c r="M42" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N42">
         <f>2*(3*(35.26+3.15))</f>
@@ -9225,7 +9372,7 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C44" s="47">
         <v>6</v>
@@ -9267,14 +9414,14 @@
     </row>
     <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C47" s="50">
         <f>C46*D16/C43</f>
         <v>0.31093413490073724</v>
       </c>
       <c r="D47" s="133" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E47" s="49"/>
       <c r="F47" s="51"/>
@@ -9370,13 +9517,13 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="205" t="s">
-        <v>356</v>
-      </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="207"/>
+      <c r="B2" s="221" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="223"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="126"/>
@@ -9403,7 +9550,7 @@
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F5" s="48">
         <v>210</v>
@@ -9530,7 +9677,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C15" s="47">
         <f>F9*D13/C5</f>
@@ -9552,7 +9699,7 @@
         <v>1.95</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F16" s="132">
         <f>D16*D16</f>
@@ -9591,7 +9738,7 @@
         <v>1.2358124999999998</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F19" s="48">
         <v>0.4</v>
@@ -9735,7 +9882,7 @@
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="47" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F28" s="48">
         <f>C28/C27</f>
@@ -9752,7 +9899,7 @@
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="47" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F29" s="48">
         <f>C29/C27</f>
@@ -9803,19 +9950,19 @@
       <c r="F33" s="48"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="202" t="s">
-        <v>349</v>
-      </c>
-      <c r="C34" s="203"/>
+      <c r="B34" s="218" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="219"/>
       <c r="D34" s="128"/>
-      <c r="E34" s="202" t="s">
-        <v>350</v>
-      </c>
-      <c r="F34" s="204"/>
+      <c r="E34" s="218" t="s">
+        <v>347</v>
+      </c>
+      <c r="F34" s="220"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C35" s="47">
         <f>C31*D13*D16*(((D16-F19)/2)-F24)</f>
@@ -9823,7 +9970,7 @@
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F35" s="48">
         <f>F16-(F19+F24)^2</f>
@@ -9838,7 +9985,7 @@
         <v>363.37</v>
       </c>
       <c r="M35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N35">
         <f>L35*2</f>
@@ -9857,7 +10004,7 @@
       <c r="E36" s="46"/>
       <c r="F36" s="48"/>
       <c r="M36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N36">
         <f>1.6*3*24</f>
@@ -9869,14 +10016,14 @@
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="46" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F37" s="48">
         <f>4*(F24+F19)</f>
         <v>2.7</v>
       </c>
       <c r="M37" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N37">
         <f>K35*2</f>
@@ -9884,15 +10031,15 @@
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="202" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="203"/>
+      <c r="B38" s="218" t="s">
+        <v>348</v>
+      </c>
+      <c r="C38" s="219"/>
       <c r="D38" s="127"/>
       <c r="E38" s="46"/>
       <c r="F38" s="48"/>
       <c r="M38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N38">
         <f>N36</f>
@@ -9904,14 +10051,14 @@
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
       <c r="E39" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F39" s="48">
         <f>C31*D13*F35</f>
         <v>80.844389366181147</v>
       </c>
       <c r="M39" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N39">
         <f>2*((3.2*(15.75+15.75+7+7))-(2.4*2)-(0.8*2)-(3*1.5*0.8))</f>
@@ -9935,7 +10082,7 @@
         <v>91.458701489388091</v>
       </c>
       <c r="M40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N40">
         <f>2*((60.375*2.5)-(5*0.9*2.3)-(1.2*2.4)-(5*1.5*1.2)-(2*1.2))</f>
@@ -9949,7 +10096,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="48"/>
       <c r="M41" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N41">
         <f>2*(((32.7+3.85+2.8)*2.5)-(3*2*0.8)-(1.4*0.8)-(1*0.8)-(2*2.4)-(0.8*2.3)-(1*2.3))</f>
@@ -9968,7 +10115,7 @@
       <c r="E42" s="46"/>
       <c r="F42" s="48"/>
       <c r="M42" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N42">
         <f>2*(3*(35.26+3.15))</f>
@@ -9993,7 +10140,7 @@
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C44" s="47">
         <v>5</v>
@@ -10043,14 +10190,14 @@
     </row>
     <row r="47" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C47" s="50">
         <f>C46*D16/C43</f>
         <v>0.21592648256995645</v>
       </c>
       <c r="D47" s="133" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E47" s="49"/>
       <c r="F47" s="51"/>
@@ -10142,13 +10289,13 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="205" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="207"/>
+      <c r="B2" s="221" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="223"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="126"/>
@@ -10294,7 +10441,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C15" s="47">
         <f>F9*D13/C5</f>
@@ -10316,7 +10463,7 @@
         <v>1.95</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F16" s="132">
         <f>D16*D16</f>
@@ -10355,7 +10502,7 @@
         <v>1.2358124999999998</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F19" s="48">
         <v>0.4</v>
@@ -10507,7 +10654,7 @@
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="47" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F28" s="48">
         <f>C28/C27</f>
@@ -10527,7 +10674,7 @@
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="47" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F29" s="48">
         <f>C29/C27</f>
@@ -10578,19 +10725,19 @@
       <c r="F33" s="48"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="202" t="s">
-        <v>349</v>
-      </c>
-      <c r="C34" s="203"/>
+      <c r="B34" s="218" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="219"/>
       <c r="D34" s="128"/>
-      <c r="E34" s="202" t="s">
-        <v>350</v>
-      </c>
-      <c r="F34" s="204"/>
+      <c r="E34" s="218" t="s">
+        <v>347</v>
+      </c>
+      <c r="F34" s="220"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C35" s="47">
         <f>C31*D13*D16*(((D16-F19)/2)-F24)</f>
@@ -10598,7 +10745,7 @@
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F35" s="48">
         <f>F16-(F19+F24)^2</f>
@@ -10613,7 +10760,7 @@
         <v>363.37</v>
       </c>
       <c r="M35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N35">
         <f>L35*2</f>
@@ -10632,7 +10779,7 @@
       <c r="E36" s="46"/>
       <c r="F36" s="48"/>
       <c r="M36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N36">
         <f>1.6*3*24</f>
@@ -10644,14 +10791,14 @@
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="46" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F37" s="48">
         <f>4*(F24+F19)</f>
         <v>2.7</v>
       </c>
       <c r="M37" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N37">
         <f>K35*2</f>
@@ -10659,15 +10806,15 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="202" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="203"/>
+      <c r="B38" s="218" t="s">
+        <v>348</v>
+      </c>
+      <c r="C38" s="219"/>
       <c r="D38" s="127"/>
       <c r="E38" s="46"/>
       <c r="F38" s="48"/>
       <c r="M38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N38">
         <f>N36</f>
@@ -10679,14 +10826,14 @@
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
       <c r="E39" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F39" s="48">
         <f>C31*D13*F35</f>
         <v>68.276531656804735</v>
       </c>
       <c r="M39" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N39">
         <f>2*((3.2*(15.75+15.75+7+7))-(2.4*2)-(0.8*2)-(3*1.5*0.8))</f>
@@ -10710,7 +10857,7 @@
         <v>91.458701489388091</v>
       </c>
       <c r="M40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N40">
         <f>2*((60.375*2.5)-(5*0.9*2.3)-(1.2*2.4)-(5*1.5*1.2)-(2*1.2))</f>
@@ -10724,7 +10871,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="48"/>
       <c r="M41" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N41">
         <f>2*(((32.7+3.85+2.8)*2.5)-(3*2*0.8)-(1.4*0.8)-(1*0.8)-(2*2.4)-(0.8*2.3)-(1*2.3))</f>
@@ -10743,7 +10890,7 @@
       <c r="E42" s="46"/>
       <c r="F42" s="48"/>
       <c r="M42" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N42">
         <f>2*(3*(35.26+3.15))</f>
@@ -10764,7 +10911,7 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C44" s="47">
         <v>5</v>
@@ -10806,14 +10953,14 @@
     </row>
     <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C47" s="50">
         <f>C46*D16/C43</f>
         <v>0.21592648256995645</v>
       </c>
       <c r="D47" s="133" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E47" s="49"/>
       <c r="F47" s="51"/>
@@ -10909,13 +11056,13 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="205" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="207"/>
+      <c r="B2" s="221" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="223"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="126"/>
@@ -11061,7 +11208,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C15" s="47">
         <f>F9*D13/C5</f>
@@ -11083,7 +11230,7 @@
         <v>1.95</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F16" s="132">
         <f>D16*D16</f>
@@ -11122,7 +11269,7 @@
         <v>1.2358124999999998</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F19" s="48">
         <v>0.4</v>
@@ -11274,7 +11421,7 @@
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="47" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F28" s="48">
         <f>C28/C27</f>
@@ -11294,7 +11441,7 @@
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="47" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F29" s="48">
         <f>C29/C27</f>
@@ -11345,19 +11492,19 @@
       <c r="F33" s="48"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="202" t="s">
-        <v>349</v>
-      </c>
-      <c r="C34" s="203"/>
+      <c r="B34" s="218" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="219"/>
       <c r="D34" s="128"/>
-      <c r="E34" s="202" t="s">
-        <v>350</v>
-      </c>
-      <c r="F34" s="204"/>
+      <c r="E34" s="218" t="s">
+        <v>347</v>
+      </c>
+      <c r="F34" s="220"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C35" s="47">
         <f>C31*D13*D16*(((D16-F19)/2)-F24)</f>
@@ -11365,7 +11512,7 @@
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F35" s="48">
         <f>F16-(F19+F24)^2</f>
@@ -11380,7 +11527,7 @@
         <v>363.37</v>
       </c>
       <c r="M35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N35">
         <f>L35*2</f>
@@ -11399,7 +11546,7 @@
       <c r="E36" s="46"/>
       <c r="F36" s="48"/>
       <c r="M36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N36">
         <f>1.6*3*24</f>
@@ -11411,14 +11558,14 @@
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="46" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F37" s="48">
         <f>4*(F24+F19)</f>
         <v>2.7</v>
       </c>
       <c r="M37" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N37">
         <f>K35*2</f>
@@ -11426,15 +11573,15 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="202" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="203"/>
+      <c r="B38" s="218" t="s">
+        <v>348</v>
+      </c>
+      <c r="C38" s="219"/>
       <c r="D38" s="127"/>
       <c r="E38" s="46"/>
       <c r="F38" s="48"/>
       <c r="M38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N38">
         <f>N36</f>
@@ -11446,14 +11593,14 @@
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
       <c r="E39" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F39" s="48">
         <f>C31*D13*F35</f>
         <v>46.796880672507974</v>
       </c>
       <c r="M39" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N39">
         <f>2*((3.2*(15.75+15.75+7+7))-(2.4*2)-(0.8*2)-(3*1.5*0.8))</f>
@@ -11477,7 +11624,7 @@
         <v>91.458701489388091</v>
       </c>
       <c r="M40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N40">
         <f>2*((60.375*2.5)-(5*0.9*2.3)-(1.2*2.4)-(5*1.5*1.2)-(2*1.2))</f>
@@ -11491,7 +11638,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="48"/>
       <c r="M41" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N41">
         <f>2*(((32.7+3.85+2.8)*2.5)-(3*2*0.8)-(1.4*0.8)-(1*0.8)-(2*2.4)-(0.8*2.3)-(1*2.3))</f>
@@ -11510,7 +11657,7 @@
       <c r="E42" s="46"/>
       <c r="F42" s="48"/>
       <c r="M42" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N42">
         <f>2*(3*(35.26+3.15))</f>
@@ -11531,7 +11678,7 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C44" s="47">
         <v>5</v>
@@ -11573,14 +11720,14 @@
     </row>
     <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C47" s="50">
         <f>C46*D16/C43</f>
         <v>0.21592648256995645</v>
       </c>
       <c r="D47" s="133" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E47" s="49"/>
       <c r="F47" s="51"/>
@@ -11823,7 +11970,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="E22" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F22">
         <v>0.4</v>
@@ -11913,7 +12060,7 @@
         <v>2.9139499999999998</v>
       </c>
       <c r="E31" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F31">
         <f>C31/C30</f>
@@ -11929,7 +12076,7 @@
         <v>2.8624899999999998</v>
       </c>
       <c r="E32" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F32">
         <f>C32/C30</f>
@@ -11963,7 +12110,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C38">
         <f>C34*D12*D19*(((D19-F22)/2)-F26)</f>
@@ -11981,7 +12128,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C41">
         <f>F19-(F22+F26)^2</f>
@@ -11990,7 +12137,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C43">
         <f>4*(F26+F22)</f>
@@ -11999,7 +12146,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C45">
         <f>C34*D12*C41</f>
@@ -12044,7 +12191,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -12070,7 +12217,7 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C55">
         <f>C54*D19/C51</f>
@@ -12254,13 +12401,13 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="205" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="207"/>
+      <c r="B2" s="221" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="223"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="126"/>
@@ -12287,7 +12434,7 @@
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F5" s="48">
         <v>210</v>
@@ -12414,7 +12561,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C15" s="47">
         <f>F9*D13/C5</f>
@@ -12436,7 +12583,7 @@
         <v>2.1</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F16" s="132">
         <f>D16*D16</f>
@@ -12475,7 +12622,7 @@
         <v>1.5435000000000001</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F19" s="48">
         <v>0.4</v>
@@ -12619,7 +12766,7 @@
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="47" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F28" s="48">
         <f>C28/C27</f>
@@ -12636,7 +12783,7 @@
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="47" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F29" s="48">
         <f>C29/C27</f>
@@ -12687,19 +12834,19 @@
       <c r="F33" s="48"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="202" t="s">
-        <v>349</v>
-      </c>
-      <c r="C34" s="203"/>
+      <c r="B34" s="218" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="219"/>
       <c r="D34" s="128"/>
-      <c r="E34" s="202" t="s">
-        <v>350</v>
-      </c>
-      <c r="F34" s="204"/>
+      <c r="E34" s="218" t="s">
+        <v>347</v>
+      </c>
+      <c r="F34" s="220"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C35" s="47">
         <f>C31*D13*D16*(((D16-F19)/2)-F24)</f>
@@ -12707,7 +12854,7 @@
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F35" s="48">
         <f>F16-(F19+F24)^2</f>
@@ -12722,7 +12869,7 @@
         <v>363.37</v>
       </c>
       <c r="M35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N35">
         <f>L35*2</f>
@@ -12741,7 +12888,7 @@
       <c r="E36" s="46"/>
       <c r="F36" s="48"/>
       <c r="M36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N36">
         <f>1.6*3*24</f>
@@ -12753,14 +12900,14 @@
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="46" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F37" s="48">
         <f>4*(F24+F19)</f>
         <v>2.9000000000000004</v>
       </c>
       <c r="M37" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N37">
         <f>K35*2</f>
@@ -12768,15 +12915,15 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="202" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="203"/>
+      <c r="B38" s="218" t="s">
+        <v>348</v>
+      </c>
+      <c r="C38" s="219"/>
       <c r="D38" s="127"/>
       <c r="E38" s="46"/>
       <c r="F38" s="48"/>
       <c r="M38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N38">
         <f>N36</f>
@@ -12788,14 +12935,14 @@
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
       <c r="E39" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F39" s="48">
         <f>C31*D13*F35</f>
         <v>91.036493799603193</v>
       </c>
       <c r="M39" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N39">
         <f>2*((3.2*(15.75+15.75+7+7))-(2.4*2)-(0.8*2)-(3*1.5*0.8))</f>
@@ -12819,7 +12966,7 @@
         <v>116.09404195791018</v>
       </c>
       <c r="M40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N40">
         <f>2*((60.375*2.5)-(5*0.9*2.3)-(1.2*2.4)-(5*1.5*1.2)-(2*1.2))</f>
@@ -12833,7 +12980,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="48"/>
       <c r="M41" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N41">
         <f>2*(((32.7+3.85+2.8)*2.5)-(3*2*0.8)-(1.4*0.8)-(1*0.8)-(2*2.4)-(0.8*2.3)-(1*2.3))</f>
@@ -12852,7 +12999,7 @@
       <c r="E42" s="46"/>
       <c r="F42" s="48"/>
       <c r="M42" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N42">
         <f>2*(3*(35.26+3.15))</f>
@@ -12873,7 +13020,7 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C44" s="47">
         <v>5</v>
@@ -12915,14 +13062,14 @@
     </row>
     <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C47" s="50">
         <f>C46*D16/C43</f>
         <v>0.18270702371304004</v>
       </c>
       <c r="D47" s="133" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E47" s="49"/>
       <c r="F47" s="51"/>
@@ -13029,46 +13176,46 @@
       </c>
     </row>
     <row r="2" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="157" t="s">
         <v>250</v>
       </c>
       <c r="C2" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="154" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="137" t="s">
+      <c r="E2" s="155"/>
+      <c r="F2" s="154" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="137" t="s">
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="154" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="M2" s="137" t="s">
+      <c r="M2" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="137" t="s">
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="137" t="s">
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="154" t="s">
         <v>195</v>
       </c>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="139"/>
+      <c r="U2" s="155"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="156"/>
       <c r="X2" s="91" t="s">
         <v>196</v>
       </c>
@@ -13086,7 +13233,7 @@
       </c>
     </row>
     <row r="3" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="141"/>
+      <c r="B3" s="158"/>
       <c r="C3" s="92" t="s">
         <v>252</v>
       </c>
@@ -13167,7 +13314,7 @@
       </c>
     </row>
     <row r="4" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="141"/>
+      <c r="B4" s="158"/>
       <c r="C4" s="92" t="s">
         <v>274</v>
       </c>
@@ -13269,7 +13416,7 @@
       </c>
     </row>
     <row r="5" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="141"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="96" t="s">
         <v>275</v>
       </c>
@@ -13371,7 +13518,7 @@
       </c>
     </row>
     <row r="6" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="141"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="96" t="s">
         <v>49</v>
       </c>
@@ -13449,7 +13596,7 @@
       </c>
     </row>
     <row r="7" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="141"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="96" t="s">
         <v>276</v>
       </c>
@@ -13551,7 +13698,7 @@
       </c>
     </row>
     <row r="8" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="141"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="96" t="s">
         <v>259</v>
       </c>
@@ -13648,7 +13795,7 @@
       </c>
     </row>
     <row r="9" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="141"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="98" t="s">
         <v>260</v>
       </c>
@@ -13760,22 +13907,22 @@
       </c>
       <c r="AF55" s="102"/>
       <c r="AM55" s="65"/>
-      <c r="AN55" s="142">
+      <c r="AN55" s="150">
         <v>6</v>
       </c>
-      <c r="AO55" s="143"/>
-      <c r="AP55" s="143"/>
-      <c r="AQ55" s="143"/>
-      <c r="AR55" s="144"/>
+      <c r="AO55" s="151"/>
+      <c r="AP55" s="151"/>
+      <c r="AQ55" s="151"/>
+      <c r="AR55" s="152"/>
       <c r="AS55" s="65"/>
       <c r="AT55" s="65"/>
-      <c r="AV55" s="142">
+      <c r="AV55" s="150">
         <v>6</v>
       </c>
-      <c r="AW55" s="143"/>
-      <c r="AX55" s="143"/>
-      <c r="AY55" s="143"/>
-      <c r="AZ55" s="144"/>
+      <c r="AW55" s="151"/>
+      <c r="AX55" s="151"/>
+      <c r="AY55" s="151"/>
+      <c r="AZ55" s="152"/>
       <c r="BD55" t="s">
         <v>269</v>
       </c>
@@ -13812,11 +13959,11 @@
         <f>-AO58*AN55*AN55/12</f>
         <v>-1500</v>
       </c>
-      <c r="AO58" s="145">
+      <c r="AO58" s="153">
         <v>500</v>
       </c>
-      <c r="AP58" s="145"/>
-      <c r="AQ58" s="145"/>
+      <c r="AP58" s="153"/>
+      <c r="AQ58" s="153"/>
       <c r="AR58">
         <f>AO58*AN55*AN55/12</f>
         <v>1500</v>
@@ -13825,11 +13972,11 @@
         <f>-AW58*AV55*AV55/12</f>
         <v>-1500</v>
       </c>
-      <c r="AW58" s="145">
+      <c r="AW58" s="153">
         <v>500</v>
       </c>
-      <c r="AX58" s="145"/>
-      <c r="AY58" s="145"/>
+      <c r="AX58" s="153"/>
+      <c r="AY58" s="153"/>
       <c r="AZ58">
         <f>AW58*AV55*AV55/12</f>
         <v>1500</v>
@@ -13847,7 +13994,7 @@
         <v>261</v>
       </c>
       <c r="AF59" s="106"/>
-      <c r="AI59" s="135">
+      <c r="AI59" s="148">
         <v>3</v>
       </c>
       <c r="AL59">
@@ -13894,7 +14041,7 @@
         <v>267</v>
       </c>
       <c r="AF60" s="107"/>
-      <c r="AI60" s="135"/>
+      <c r="AI60" s="148"/>
       <c r="AL60" s="105">
         <f>-0.5*(BE60/(BE61+BE60))</f>
         <v>-0.27931034482758621</v>
@@ -13928,7 +14075,7 @@
       </c>
     </row>
     <row r="61" spans="31:57" x14ac:dyDescent="0.25">
-      <c r="AI61" s="135"/>
+      <c r="AI61" s="148"/>
       <c r="AL61" s="101">
         <v>0</v>
       </c>
@@ -13963,7 +14110,7 @@
       </c>
     </row>
     <row r="62" spans="31:57" x14ac:dyDescent="0.25">
-      <c r="AI62" s="135"/>
+      <c r="AI62" s="148"/>
       <c r="AL62" s="101">
         <f t="shared" ref="AL62:AL67" si="6">($E$13+AS60+AL73+AM70)*$E$14</f>
         <v>0</v>
@@ -13994,7 +14141,7 @@
       </c>
     </row>
     <row r="63" spans="31:57" x14ac:dyDescent="0.25">
-      <c r="AI63" s="135"/>
+      <c r="AI63" s="148"/>
       <c r="AL63" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -14025,7 +14172,7 @@
       </c>
     </row>
     <row r="64" spans="31:57" x14ac:dyDescent="0.25">
-      <c r="AI64" s="135"/>
+      <c r="AI64" s="148"/>
       <c r="AL64" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -14056,7 +14203,7 @@
       </c>
     </row>
     <row r="65" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI65" s="135"/>
+      <c r="AI65" s="148"/>
       <c r="AL65" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -14090,7 +14237,7 @@
       </c>
     </row>
     <row r="66" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI66" s="135"/>
+      <c r="AI66" s="148"/>
       <c r="AL66" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -14121,7 +14268,7 @@
       </c>
     </row>
     <row r="67" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI67" s="135"/>
+      <c r="AI67" s="148"/>
       <c r="AL67" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -14158,7 +14305,7 @@
       </c>
     </row>
     <row r="68" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI68" s="135"/>
+      <c r="AI68" s="148"/>
       <c r="AL68" s="109">
         <f>AN63+(2*AL67)+AL79+AM76</f>
         <v>0</v>
@@ -14177,7 +14324,7 @@
       </c>
     </row>
     <row r="69" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI69" s="135"/>
+      <c r="AI69" s="148"/>
       <c r="AL69" s="108"/>
       <c r="AM69" s="110"/>
       <c r="AP69">
@@ -14190,7 +14337,7 @@
       <c r="BB69" s="108"/>
     </row>
     <row r="70" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI70" s="135"/>
+      <c r="AI70" s="148"/>
       <c r="AK70" s="105">
         <v>-0.5</v>
       </c>
@@ -14214,7 +14361,7 @@
       </c>
     </row>
     <row r="71" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI71" s="135"/>
+      <c r="AI71" s="148"/>
       <c r="AL71" s="108"/>
       <c r="AM71" s="100">
         <f>$D$24*(AL62+AL74+AT62+AT74+BB62+BB74)</f>
@@ -14242,7 +14389,7 @@
       </c>
     </row>
     <row r="72" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI72" s="135"/>
+      <c r="AI72" s="148"/>
       <c r="AL72" s="108"/>
       <c r="AM72" s="100">
         <f>$D$24*(AL63+AL75)</f>
@@ -14266,7 +14413,7 @@
       </c>
     </row>
     <row r="73" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI73" s="135"/>
+      <c r="AI73" s="148"/>
       <c r="AL73" s="101">
         <v>0</v>
       </c>
@@ -14578,11 +14725,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AN55:AR55"/>
-    <mergeCell ref="AV55:AZ55"/>
-    <mergeCell ref="AO58:AQ58"/>
-    <mergeCell ref="AW58:AY58"/>
-    <mergeCell ref="AI59:AI73"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:S2"/>
@@ -14590,6 +14732,11 @@
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="AN55:AR55"/>
+    <mergeCell ref="AV55:AZ55"/>
+    <mergeCell ref="AO58:AQ58"/>
+    <mergeCell ref="AW58:AY58"/>
+    <mergeCell ref="AI59:AI73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14611,13 +14758,13 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="205" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="207"/>
+      <c r="B2" s="221" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="223"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="126"/>
@@ -14763,7 +14910,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C15" s="47">
         <f>F9*D13/C5</f>
@@ -14785,7 +14932,7 @@
         <v>1.95</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F16" s="132">
         <f>D16*D16</f>
@@ -14824,7 +14971,7 @@
         <v>1.2358124999999998</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F19" s="48">
         <v>0.4</v>
@@ -14976,7 +15123,7 @@
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="47" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F28" s="48">
         <f>C28/C27</f>
@@ -14996,7 +15143,7 @@
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="47" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F29" s="48">
         <f>C29/C27</f>
@@ -15047,19 +15194,19 @@
       <c r="F33" s="48"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="202" t="s">
-        <v>349</v>
-      </c>
-      <c r="C34" s="203"/>
+      <c r="B34" s="218" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="219"/>
       <c r="D34" s="128"/>
-      <c r="E34" s="202" t="s">
-        <v>350</v>
-      </c>
-      <c r="F34" s="204"/>
+      <c r="E34" s="218" t="s">
+        <v>347</v>
+      </c>
+      <c r="F34" s="220"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C35" s="47">
         <f>C31*D13*D16*(((D16-F19)/2)-F24)</f>
@@ -15067,7 +15214,7 @@
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F35" s="48">
         <f>F16-(F19+F24)^2</f>
@@ -15082,7 +15229,7 @@
         <v>363.37</v>
       </c>
       <c r="M35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N35">
         <f>L35*2</f>
@@ -15101,7 +15248,7 @@
       <c r="E36" s="46"/>
       <c r="F36" s="48"/>
       <c r="M36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N36">
         <f>1.6*3*24</f>
@@ -15113,14 +15260,14 @@
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="46" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F37" s="48">
         <f>4*(F24+F19)</f>
         <v>2.7</v>
       </c>
       <c r="M37" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N37">
         <f>K35*2</f>
@@ -15128,15 +15275,15 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="202" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="203"/>
+      <c r="B38" s="218" t="s">
+        <v>348</v>
+      </c>
+      <c r="C38" s="219"/>
       <c r="D38" s="127"/>
       <c r="E38" s="46"/>
       <c r="F38" s="48"/>
       <c r="M38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N38">
         <f>N36</f>
@@ -15148,14 +15295,14 @@
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
       <c r="E39" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F39" s="48">
         <f>C31*D13*F35</f>
         <v>62.342680544492502</v>
       </c>
       <c r="M39" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N39">
         <f>2*((3.2*(15.75+15.75+7+7))-(2.4*2)-(0.8*2)-(3*1.5*0.8))</f>
@@ -15179,7 +15326,7 @@
         <v>91.458701489388091</v>
       </c>
       <c r="M40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N40">
         <f>2*((60.375*2.5)-(5*0.9*2.3)-(1.2*2.4)-(5*1.5*1.2)-(2*1.2))</f>
@@ -15193,7 +15340,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="48"/>
       <c r="M41" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N41">
         <f>2*(((32.7+3.85+2.8)*2.5)-(3*2*0.8)-(1.4*0.8)-(1*0.8)-(2*2.4)-(0.8*2.3)-(1*2.3))</f>
@@ -15212,7 +15359,7 @@
       <c r="E42" s="46"/>
       <c r="F42" s="48"/>
       <c r="M42" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N42">
         <f>2*(3*(35.26+3.15))</f>
@@ -15233,7 +15380,7 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C44" s="47">
         <v>5</v>
@@ -15275,14 +15422,14 @@
     </row>
     <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C47" s="50">
         <f>C46*D16/C43</f>
         <v>0.21592648256995645</v>
       </c>
       <c r="D47" s="133" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E47" s="49"/>
       <c r="F47" s="51"/>
@@ -15378,13 +15525,13 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="205" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="207"/>
+      <c r="B2" s="221" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="223"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="126"/>
@@ -15530,7 +15677,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C15" s="47">
         <f>F9*D13/C5</f>
@@ -15552,7 +15699,7 @@
         <v>1.9</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F16" s="132">
         <f>D16*D16</f>
@@ -15591,7 +15738,7 @@
         <v>1.1431666666666664</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F19" s="48">
         <v>0.4</v>
@@ -15743,7 +15890,7 @@
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="47" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F28" s="48">
         <f>C28/C27</f>
@@ -15763,7 +15910,7 @@
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="47" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F29" s="48">
         <f>C29/C27</f>
@@ -15814,19 +15961,19 @@
       <c r="F33" s="48"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="202" t="s">
-        <v>349</v>
-      </c>
-      <c r="C34" s="203"/>
+      <c r="B34" s="218" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="219"/>
       <c r="D34" s="128"/>
-      <c r="E34" s="202" t="s">
-        <v>350</v>
-      </c>
-      <c r="F34" s="204"/>
+      <c r="E34" s="218" t="s">
+        <v>347</v>
+      </c>
+      <c r="F34" s="220"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C35" s="47">
         <f>C31*D13*D16*(((D16-F19)/2)-F24)</f>
@@ -15834,7 +15981,7 @@
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F35" s="48">
         <f>F16-(F19+F24)^2</f>
@@ -15849,7 +15996,7 @@
         <v>363.37</v>
       </c>
       <c r="M35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N35">
         <f>L35*2</f>
@@ -15868,7 +16015,7 @@
       <c r="E36" s="46"/>
       <c r="F36" s="48"/>
       <c r="M36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N36">
         <f>1.6*3*24</f>
@@ -15880,14 +16027,14 @@
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="46" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F37" s="48">
         <f>4*(F24+F19)</f>
         <v>2.7</v>
       </c>
       <c r="M37" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N37">
         <f>K35*2</f>
@@ -15895,15 +16042,15 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="202" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="203"/>
+      <c r="B38" s="218" t="s">
+        <v>348</v>
+      </c>
+      <c r="C38" s="219"/>
       <c r="D38" s="127"/>
       <c r="E38" s="46"/>
       <c r="F38" s="48"/>
       <c r="M38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N38">
         <f>N36</f>
@@ -15915,14 +16062,14 @@
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
       <c r="E39" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F39" s="48">
         <f>C31*D13*F35</f>
         <v>103.62041164573917</v>
       </c>
       <c r="M39" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N39">
         <f>2*((3.2*(15.75+15.75+7+7))-(2.4*2)-(0.8*2)-(3*1.5*0.8))</f>
@@ -15946,7 +16093,7 @@
         <v>105.79582843412351</v>
       </c>
       <c r="M40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N40">
         <f>2*((60.375*2.5)-(5*0.9*2.3)-(1.2*2.4)-(5*1.5*1.2)-(2*1.2))</f>
@@ -15960,7 +16107,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="48"/>
       <c r="M41" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N41">
         <f>2*(((32.7+3.85+2.8)*2.5)-(3*2*0.8)-(1.4*0.8)-(1*0.8)-(2*2.4)-(0.8*2.3)-(1*2.3))</f>
@@ -15979,7 +16126,7 @@
       <c r="E42" s="46"/>
       <c r="F42" s="48"/>
       <c r="M42" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N42">
         <f>2*(3*(35.26+3.15))</f>
@@ -16000,7 +16147,7 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C44" s="47">
         <v>5</v>
@@ -16042,14 +16189,14 @@
     </row>
     <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C47" s="50">
         <f>C46*D16/C43</f>
         <v>0.21592648256995642</v>
       </c>
       <c r="D47" s="133" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E47" s="49"/>
       <c r="F47" s="51"/>
@@ -16145,13 +16292,13 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="205" t="s">
-        <v>356</v>
-      </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="207"/>
+      <c r="B2" s="221" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="223"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="126"/>
@@ -16297,7 +16444,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C15" s="47">
         <f>F9*D13/C5</f>
@@ -16319,7 +16466,7 @@
         <v>2.25</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F16" s="132">
         <f>D16*D16</f>
@@ -16358,7 +16505,7 @@
         <v>1.8984375</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F19" s="48">
         <v>0.4</v>
@@ -16510,7 +16657,7 @@
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="47" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F28" s="48">
         <f>C28/C27</f>
@@ -16530,7 +16677,7 @@
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="47" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F29" s="48">
         <f>C29/C27</f>
@@ -16581,19 +16728,19 @@
       <c r="F33" s="48"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="202" t="s">
-        <v>349</v>
-      </c>
-      <c r="C34" s="203"/>
+      <c r="B34" s="218" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="219"/>
       <c r="D34" s="128"/>
-      <c r="E34" s="202" t="s">
-        <v>350</v>
-      </c>
-      <c r="F34" s="204"/>
+      <c r="E34" s="218" t="s">
+        <v>347</v>
+      </c>
+      <c r="F34" s="220"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C35" s="47">
         <f>C31*D13*D16*(((D16-F19)/2)-F24)</f>
@@ -16601,7 +16748,7 @@
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F35" s="48">
         <f>F16-(F19+F24)^2</f>
@@ -16616,7 +16763,7 @@
         <v>363.37</v>
       </c>
       <c r="M35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N35">
         <f>L35*2</f>
@@ -16635,7 +16782,7 @@
       <c r="E36" s="46"/>
       <c r="F36" s="48"/>
       <c r="M36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N36">
         <f>1.6*3*24</f>
@@ -16647,14 +16794,14 @@
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="46" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F37" s="48">
         <f>4*(F24+F19)</f>
         <v>3.1</v>
       </c>
       <c r="M37" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N37">
         <f>K35*2</f>
@@ -16662,15 +16809,15 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="202" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="203"/>
+      <c r="B38" s="218" t="s">
+        <v>348</v>
+      </c>
+      <c r="C38" s="219"/>
       <c r="D38" s="127"/>
       <c r="E38" s="46"/>
       <c r="F38" s="48"/>
       <c r="M38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N38">
         <f>N36</f>
@@ -16682,14 +16829,14 @@
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
       <c r="E39" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F39" s="48">
         <f>C31*D13*F35</f>
         <v>147.76848641975309</v>
       </c>
       <c r="M39" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N39">
         <f>2*((3.2*(15.75+15.75+7+7))-(2.4*2)-(0.8*2)-(3*1.5*0.8))</f>
@@ -16713,7 +16860,7 @@
         <v>165.63993340696106</v>
       </c>
       <c r="M40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N40">
         <f>2*((60.375*2.5)-(5*0.9*2.3)-(1.2*2.4)-(5*1.5*1.2)-(2*1.2))</f>
@@ -16727,7 +16874,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="48"/>
       <c r="M41" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N41">
         <f>2*(((32.7+3.85+2.8)*2.5)-(3*2*0.8)-(1.4*0.8)-(1*0.8)-(2*2.4)-(0.8*2.3)-(1*2.3))</f>
@@ -16746,7 +16893,7 @@
       <c r="E42" s="46"/>
       <c r="F42" s="48"/>
       <c r="M42" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N42">
         <f>2*(3*(35.26+3.15))</f>
@@ -16767,7 +16914,7 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C44" s="47">
         <v>5</v>
@@ -16809,14 +16956,14 @@
     </row>
     <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C47" s="50">
         <f>C46*D16/C43</f>
         <v>0.15834608721796803</v>
       </c>
       <c r="D47" s="133" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E47" s="49"/>
       <c r="F47" s="51"/>
@@ -16912,13 +17059,13 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="205" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="207"/>
+      <c r="B2" s="221" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="223"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="126"/>
@@ -17064,7 +17211,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C15" s="47">
         <f>F9*D13/C5</f>
@@ -17086,7 +17233,7 @@
         <v>2.5</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F16" s="132">
         <f>D16*D16</f>
@@ -17125,7 +17272,7 @@
         <v>2.6041666666666661</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F19" s="48">
         <v>0.4</v>
@@ -17277,7 +17424,7 @@
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="47" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F28" s="48">
         <f>C28/C27</f>
@@ -17297,7 +17444,7 @@
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="47" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F29" s="48">
         <f>C29/C27</f>
@@ -17348,19 +17495,19 @@
       <c r="F33" s="48"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="202" t="s">
-        <v>349</v>
-      </c>
-      <c r="C34" s="203"/>
+      <c r="B34" s="218" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="219"/>
       <c r="D34" s="128"/>
-      <c r="E34" s="202" t="s">
-        <v>350</v>
-      </c>
-      <c r="F34" s="204"/>
+      <c r="E34" s="218" t="s">
+        <v>347</v>
+      </c>
+      <c r="F34" s="220"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C35" s="47">
         <f>C31*D13*D16*(((D16-F19)/2)-F24)</f>
@@ -17368,7 +17515,7 @@
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F35" s="48">
         <f>F16-(F19+F24)^2</f>
@@ -17383,7 +17530,7 @@
         <v>363.37</v>
       </c>
       <c r="M35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N35">
         <f>L35*2</f>
@@ -17402,7 +17549,7 @@
       <c r="E36" s="46"/>
       <c r="F36" s="48"/>
       <c r="M36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N36">
         <f>1.6*3*24</f>
@@ -17414,14 +17561,14 @@
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="46" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F37" s="48">
         <f>4*(F24+F19)</f>
         <v>3.1</v>
       </c>
       <c r="M37" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N37">
         <f>K35*2</f>
@@ -17429,15 +17576,15 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="202" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="203"/>
+      <c r="B38" s="218" t="s">
+        <v>348</v>
+      </c>
+      <c r="C38" s="219"/>
       <c r="D38" s="127"/>
       <c r="E38" s="46"/>
       <c r="F38" s="48"/>
       <c r="M38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N38">
         <f>N36</f>
@@ -17449,14 +17596,14 @@
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
       <c r="E39" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F39" s="48">
         <f>C31*D13*F35</f>
         <v>118.79748899100001</v>
       </c>
       <c r="M39" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N39">
         <f>2*((3.2*(15.75+15.75+7+7))-(2.4*2)-(0.8*2)-(3*1.5*0.8))</f>
@@ -17480,7 +17627,7 @@
         <v>165.63993340696106</v>
       </c>
       <c r="M40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N40">
         <f>2*((60.375*2.5)-(5*0.9*2.3)-(1.2*2.4)-(5*1.5*1.2)-(2*1.2))</f>
@@ -17494,7 +17641,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="48"/>
       <c r="M41" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N41">
         <f>2*(((32.7+3.85+2.8)*2.5)-(3*2*0.8)-(1.4*0.8)-(1*0.8)-(2*2.4)-(0.8*2.3)-(1*2.3))</f>
@@ -17513,7 +17660,7 @@
       <c r="E42" s="46"/>
       <c r="F42" s="48"/>
       <c r="M42" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N42">
         <f>2*(3*(35.26+3.15))</f>
@@ -17534,7 +17681,7 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C44" s="47">
         <v>5</v>
@@ -17576,14 +17723,14 @@
     </row>
     <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C47" s="50">
         <f>C46*D16/C43</f>
         <v>0.15834608721796803</v>
       </c>
       <c r="D47" s="133" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E47" s="49"/>
       <c r="F47" s="51"/>
@@ -17679,13 +17826,13 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="205" t="s">
-        <v>363</v>
-      </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="207"/>
+      <c r="B2" s="221" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="223"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="126"/>
@@ -17831,7 +17978,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C15" s="47">
         <f>F9*D13/C5</f>
@@ -17853,7 +18000,7 @@
         <v>3.4</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F16" s="132">
         <f>D16*D16</f>
@@ -17892,7 +18039,7 @@
         <v>6.5506666666666664</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F19" s="48">
         <v>0.5</v>
@@ -18044,7 +18191,7 @@
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="47" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F28" s="48">
         <f>C28/C27</f>
@@ -18064,7 +18211,7 @@
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="47" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F29" s="48">
         <f>C29/C27</f>
@@ -18115,19 +18262,19 @@
       <c r="F33" s="48"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="202" t="s">
-        <v>349</v>
-      </c>
-      <c r="C34" s="203"/>
+      <c r="B34" s="218" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="219"/>
       <c r="D34" s="128"/>
-      <c r="E34" s="202" t="s">
-        <v>350</v>
-      </c>
-      <c r="F34" s="204"/>
+      <c r="E34" s="218" t="s">
+        <v>347</v>
+      </c>
+      <c r="F34" s="220"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C35" s="47">
         <f>C31*D13*D16*(((D16-F19)/2)-F24)</f>
@@ -18135,7 +18282,7 @@
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F35" s="48">
         <f>F16-(F19+F24)^2</f>
@@ -18150,7 +18297,7 @@
         <v>363.37</v>
       </c>
       <c r="M35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N35">
         <f>L35*2</f>
@@ -18169,7 +18316,7 @@
       <c r="E36" s="46"/>
       <c r="F36" s="48"/>
       <c r="M36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N36">
         <f>1.6*3*24</f>
@@ -18181,14 +18328,14 @@
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="46" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F37" s="48">
         <f>4*(F24+F19)</f>
         <v>4.3000000000000007</v>
       </c>
       <c r="M37" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N37">
         <f>K35*2</f>
@@ -18196,15 +18343,15 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="202" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="203"/>
+      <c r="B38" s="218" t="s">
+        <v>348</v>
+      </c>
+      <c r="C38" s="219"/>
       <c r="D38" s="127"/>
       <c r="E38" s="46"/>
       <c r="F38" s="48"/>
       <c r="M38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N38">
         <f>N36</f>
@@ -18216,14 +18363,14 @@
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
       <c r="E39" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F39" s="48">
         <f>C31*D13*F35</f>
         <v>336.39046495172238</v>
       </c>
       <c r="M39" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N39">
         <f>2*((3.2*(15.75+15.75+7+7))-(2.4*2)-(0.8*2)-(3*1.5*0.8))</f>
@@ -18247,7 +18394,7 @@
         <v>352.29654653652597</v>
       </c>
       <c r="M40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N40">
         <f>2*((60.375*2.5)-(5*0.9*2.3)-(1.2*2.4)-(5*1.5*1.2)-(2*1.2))</f>
@@ -18261,7 +18408,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="48"/>
       <c r="M41" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N41">
         <f>2*(((32.7+3.85+2.8)*2.5)-(3*2*0.8)-(1.4*0.8)-(1*0.8)-(2*2.4)-(0.8*2.3)-(1*2.3))</f>
@@ -18280,7 +18427,7 @@
       <c r="E42" s="46"/>
       <c r="F42" s="48"/>
       <c r="M42" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N42">
         <f>2*(3*(35.26+3.15))</f>
@@ -18301,7 +18448,7 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C44" s="47">
         <v>5</v>
@@ -18343,14 +18490,14 @@
     </row>
     <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C47" s="50">
         <f>C46*D16/C43</f>
         <v>0.10326918731606607</v>
       </c>
       <c r="D47" s="133" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E47" s="49"/>
       <c r="F47" s="51"/>
@@ -18434,8 +18581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:EE259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AY81" sqref="AY81:BB85"/>
+    <sheetView topLeftCell="AU59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BC74" sqref="BC74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18667,10 +18814,10 @@
       </c>
     </row>
     <row r="13" spans="3:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="165"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="167"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="206"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="183"/>
       <c r="G13" s="21" t="s">
         <v>13</v>
       </c>
@@ -18687,42 +18834,42 @@
       <c r="L16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M16" s="168" t="s">
+      <c r="M16" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="162" t="s">
+      <c r="N16" s="208"/>
+      <c r="O16" s="208"/>
+      <c r="P16" s="209"/>
+      <c r="Q16" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="163"/>
-      <c r="S16" s="163"/>
-      <c r="T16" s="164"/>
-      <c r="U16" s="162" t="s">
+      <c r="R16" s="208"/>
+      <c r="S16" s="208"/>
+      <c r="T16" s="209"/>
+      <c r="U16" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="V16" s="163"/>
-      <c r="W16" s="163"/>
-      <c r="X16" s="164"/>
-      <c r="Y16" s="162" t="s">
+      <c r="V16" s="208"/>
+      <c r="W16" s="208"/>
+      <c r="X16" s="209"/>
+      <c r="Y16" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="Z16" s="163"/>
-      <c r="AA16" s="163"/>
-      <c r="AB16" s="164"/>
-      <c r="AC16" s="162" t="s">
+      <c r="Z16" s="208"/>
+      <c r="AA16" s="208"/>
+      <c r="AB16" s="209"/>
+      <c r="AC16" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="AD16" s="163"/>
-      <c r="AE16" s="163"/>
-      <c r="AF16" s="164"/>
-      <c r="AG16" s="162" t="s">
+      <c r="AD16" s="208"/>
+      <c r="AE16" s="208"/>
+      <c r="AF16" s="209"/>
+      <c r="AG16" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="AH16" s="163"/>
-      <c r="AI16" s="163"/>
-      <c r="AJ16" s="164"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AJ16" s="209"/>
     </row>
     <row r="17" spans="11:43" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K17" s="9">
@@ -19063,108 +19210,108 @@
       </c>
     </row>
     <row r="25" spans="11:43" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K25" s="152" t="s">
+      <c r="K25" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="153"/>
-      <c r="M25" s="156">
+      <c r="L25" s="215"/>
+      <c r="M25" s="191">
         <f>AL17/AL25+AL18/AL25+(AL19*1/4)/AL25</f>
         <v>0.19230769230769232</v>
       </c>
-      <c r="N25" s="157"/>
-      <c r="O25" s="157"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="156">
+      <c r="N25" s="192"/>
+      <c r="O25" s="192"/>
+      <c r="P25" s="193"/>
+      <c r="Q25" s="191">
         <f>(AL19*3/4)/AL25+(AL20*1/5)/AL25</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="R25" s="157"/>
-      <c r="S25" s="157"/>
-      <c r="T25" s="158"/>
-      <c r="U25" s="156">
+      <c r="R25" s="192"/>
+      <c r="S25" s="192"/>
+      <c r="T25" s="193"/>
+      <c r="U25" s="191">
         <f>(AL20*4/5)/AL25</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="V25" s="157"/>
-      <c r="W25" s="157"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="156">
+      <c r="V25" s="192"/>
+      <c r="W25" s="192"/>
+      <c r="X25" s="193"/>
+      <c r="Y25" s="191">
         <f>AL21/AL25</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="Z25" s="157"/>
-      <c r="AA25" s="157"/>
-      <c r="AB25" s="158"/>
-      <c r="AC25" s="156">
+      <c r="Z25" s="192"/>
+      <c r="AA25" s="192"/>
+      <c r="AB25" s="193"/>
+      <c r="AC25" s="191">
         <f>AL22/AL25</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="AD25" s="157"/>
-      <c r="AE25" s="157"/>
-      <c r="AF25" s="158"/>
-      <c r="AG25" s="156">
+      <c r="AD25" s="192"/>
+      <c r="AE25" s="192"/>
+      <c r="AF25" s="193"/>
+      <c r="AG25" s="191">
         <f>AL23/AL25+AL24/AL25</f>
         <v>0.19230769230769232</v>
       </c>
-      <c r="AH25" s="157"/>
-      <c r="AI25" s="157"/>
-      <c r="AJ25" s="158"/>
+      <c r="AH25" s="192"/>
+      <c r="AI25" s="192"/>
+      <c r="AJ25" s="193"/>
       <c r="AL25">
         <f>SUM(AL17:AL24)</f>
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="11:43" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K26" s="154" t="s">
+      <c r="K26" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="155"/>
-      <c r="M26" s="159">
+      <c r="L26" s="217"/>
+      <c r="M26" s="211">
         <f>M25</f>
         <v>0.19230769230769232</v>
       </c>
-      <c r="N26" s="160"/>
-      <c r="O26" s="160"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="159">
+      <c r="N26" s="212"/>
+      <c r="O26" s="212"/>
+      <c r="P26" s="213"/>
+      <c r="Q26" s="211">
         <f>Q25+M26</f>
         <v>0.34615384615384615</v>
       </c>
-      <c r="R26" s="160"/>
-      <c r="S26" s="160"/>
-      <c r="T26" s="161"/>
-      <c r="U26" s="159">
+      <c r="R26" s="212"/>
+      <c r="S26" s="212"/>
+      <c r="T26" s="213"/>
+      <c r="U26" s="211">
         <f>U25+Q26</f>
         <v>0.5</v>
       </c>
-      <c r="V26" s="160"/>
-      <c r="W26" s="160"/>
-      <c r="X26" s="161"/>
-      <c r="Y26" s="159">
+      <c r="V26" s="212"/>
+      <c r="W26" s="212"/>
+      <c r="X26" s="213"/>
+      <c r="Y26" s="211">
         <f>Y25+U26</f>
         <v>0.65384615384615385</v>
       </c>
-      <c r="Z26" s="160"/>
-      <c r="AA26" s="160"/>
-      <c r="AB26" s="161"/>
-      <c r="AC26" s="159">
+      <c r="Z26" s="212"/>
+      <c r="AA26" s="212"/>
+      <c r="AB26" s="213"/>
+      <c r="AC26" s="211">
         <f>AC25+Y26</f>
         <v>0.80769230769230771</v>
       </c>
-      <c r="AD26" s="160"/>
-      <c r="AE26" s="160"/>
-      <c r="AF26" s="161"/>
-      <c r="AG26" s="159">
+      <c r="AD26" s="212"/>
+      <c r="AE26" s="212"/>
+      <c r="AF26" s="213"/>
+      <c r="AG26" s="211">
         <f>AG25+AC26</f>
         <v>1</v>
       </c>
-      <c r="AH26" s="160"/>
-      <c r="AI26" s="160"/>
-      <c r="AJ26" s="161"/>
+      <c r="AH26" s="212"/>
+      <c r="AI26" s="212"/>
+      <c r="AJ26" s="213"/>
     </row>
     <row r="27" spans="11:43" x14ac:dyDescent="0.25">
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
     </row>
     <row r="31" spans="11:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AQ31" s="36"/>
@@ -19264,562 +19411,562 @@
     </row>
     <row r="44" spans="40:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="40:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR45" s="208" t="s">
+      <c r="AR45" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="AS45" s="209"/>
-      <c r="AT45" s="209"/>
-      <c r="AU45" s="209"/>
-      <c r="AV45" s="209"/>
-      <c r="AW45" s="210"/>
+      <c r="AS45" s="195"/>
+      <c r="AT45" s="195"/>
+      <c r="AU45" s="195"/>
+      <c r="AV45" s="195"/>
+      <c r="AW45" s="196"/>
     </row>
     <row r="46" spans="40:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR46" s="211" t="s">
+      <c r="AR46" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="AS46" s="211" t="s">
+      <c r="AS46" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="AT46" s="211" t="s">
-        <v>365</v>
-      </c>
-      <c r="AU46" s="211" t="s">
+      <c r="AT46" s="134" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU46" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="AV46" s="211" t="s">
+      <c r="AV46" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="AW46" s="211" t="s">
+      <c r="AW46" s="134" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="40:49" x14ac:dyDescent="0.25">
-      <c r="AR47" s="212" t="s">
+      <c r="AR47" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="AS47" s="213">
+      <c r="AS47" s="136">
         <v>50</v>
       </c>
-      <c r="AT47" s="213"/>
-      <c r="AU47" s="213">
+      <c r="AT47" s="136"/>
+      <c r="AU47" s="136">
         <f>6.55*3.3</f>
         <v>21.614999999999998</v>
       </c>
-      <c r="AV47" s="213"/>
-      <c r="AW47" s="214">
+      <c r="AV47" s="136"/>
+      <c r="AW47" s="137">
         <f>AS47*AU47</f>
         <v>1080.75</v>
       </c>
     </row>
     <row r="48" spans="40:49" x14ac:dyDescent="0.25">
-      <c r="AR48" s="212" t="s">
+      <c r="AR48" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="AS48" s="213">
+      <c r="AS48" s="136">
         <v>100</v>
       </c>
-      <c r="AT48" s="213"/>
-      <c r="AU48" s="213">
+      <c r="AT48" s="136"/>
+      <c r="AU48" s="136">
         <f>6.55*3.3</f>
         <v>21.614999999999998</v>
       </c>
-      <c r="AV48" s="213"/>
-      <c r="AW48" s="214">
+      <c r="AV48" s="136"/>
+      <c r="AW48" s="137">
         <f>AS48*AU48</f>
         <v>2161.5</v>
       </c>
     </row>
     <row r="49" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR49" s="212" t="s">
-        <v>360</v>
-      </c>
-      <c r="AS49" s="213">
+      <c r="AR49" s="135" t="s">
+        <v>357</v>
+      </c>
+      <c r="AS49" s="136">
         <v>150</v>
       </c>
-      <c r="AT49" s="213"/>
-      <c r="AU49" s="213">
+      <c r="AT49" s="136"/>
+      <c r="AU49" s="136">
         <f>6.55*3.3</f>
         <v>21.614999999999998</v>
       </c>
-      <c r="AV49" s="213"/>
-      <c r="AW49" s="214">
+      <c r="AV49" s="136"/>
+      <c r="AW49" s="137">
         <f>AS49*AU49</f>
         <v>3242.2499999999995</v>
       </c>
     </row>
     <row r="50" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR50" s="212" t="s">
-        <v>364</v>
-      </c>
-      <c r="AS50" s="213">
+      <c r="AR50" s="135" t="s">
+        <v>361</v>
+      </c>
+      <c r="AS50" s="136">
         <f>0.12*2400</f>
         <v>288</v>
       </c>
-      <c r="AT50" s="213"/>
-      <c r="AU50" s="213">
+      <c r="AT50" s="136"/>
+      <c r="AU50" s="136">
         <f>6.55*3.3</f>
         <v>21.614999999999998</v>
       </c>
-      <c r="AV50" s="213"/>
-      <c r="AW50" s="214">
+      <c r="AV50" s="136"/>
+      <c r="AW50" s="137">
         <f>AS50*AU50</f>
         <v>6225.12</v>
       </c>
     </row>
     <row r="51" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR51" s="212" t="s">
+      <c r="AR51" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="AS51" s="213"/>
-      <c r="AT51" s="213">
+      <c r="AS51" s="136"/>
+      <c r="AT51" s="136">
         <f>0.15*3.2*2000</f>
         <v>960</v>
       </c>
-      <c r="AU51" s="213"/>
-      <c r="AV51" s="213">
+      <c r="AU51" s="136"/>
+      <c r="AV51" s="136">
         <v>9.85</v>
       </c>
-      <c r="AW51" s="214">
+      <c r="AW51" s="137">
         <f>AV51*AT51</f>
         <v>9456</v>
       </c>
     </row>
     <row r="52" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR52" s="212" t="s">
+      <c r="AR52" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="AS52" s="213"/>
-      <c r="AT52" s="213">
+      <c r="AS52" s="136"/>
+      <c r="AT52" s="136">
         <f>0.3*0.6*2400</f>
         <v>432</v>
       </c>
-      <c r="AU52" s="213"/>
-      <c r="AV52" s="213">
+      <c r="AU52" s="136"/>
+      <c r="AV52" s="136">
         <v>9.85</v>
       </c>
-      <c r="AW52" s="214">
+      <c r="AW52" s="137">
         <f>AV52*AT52</f>
         <v>4255.2</v>
       </c>
     </row>
     <row r="53" spans="44:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR53" s="215" t="s">
+      <c r="AR53" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="AS53" s="216"/>
-      <c r="AT53" s="216">
+      <c r="AS53" s="139"/>
+      <c r="AT53" s="139">
         <f>0.4*0.4*2400</f>
         <v>384.00000000000006</v>
       </c>
-      <c r="AU53" s="216"/>
-      <c r="AV53" s="216">
+      <c r="AU53" s="139"/>
+      <c r="AV53" s="139">
         <v>3.65</v>
       </c>
-      <c r="AW53" s="214">
+      <c r="AW53" s="137">
         <f>AV53*AT53</f>
         <v>1401.6000000000001</v>
       </c>
     </row>
     <row r="54" spans="44:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR54" s="217"/>
-      <c r="AS54" s="217"/>
-      <c r="AT54" s="217"/>
-      <c r="AU54" s="217"/>
-      <c r="AV54" s="218" t="s">
+      <c r="AR54" s="140"/>
+      <c r="AS54" s="140"/>
+      <c r="AT54" s="140"/>
+      <c r="AU54" s="140"/>
+      <c r="AV54" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AW54" s="218">
+      <c r="AW54" s="141">
         <f>SUM(AW47:AW53)</f>
         <v>27822.42</v>
       </c>
     </row>
     <row r="55" spans="44:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR55" s="219"/>
-      <c r="AS55" s="219"/>
-      <c r="AT55" s="219"/>
-      <c r="AU55" s="219"/>
-      <c r="AV55" s="219"/>
-      <c r="AW55" s="219"/>
+      <c r="AR55" s="142"/>
+      <c r="AS55" s="142"/>
+      <c r="AT55" s="142"/>
+      <c r="AU55" s="142"/>
+      <c r="AV55" s="142"/>
+      <c r="AW55" s="142"/>
     </row>
     <row r="56" spans="44:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR56" s="208" t="s">
+      <c r="AR56" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="AS56" s="209"/>
-      <c r="AT56" s="209"/>
-      <c r="AU56" s="209"/>
-      <c r="AV56" s="209"/>
-      <c r="AW56" s="210"/>
+      <c r="AS56" s="195"/>
+      <c r="AT56" s="195"/>
+      <c r="AU56" s="195"/>
+      <c r="AV56" s="195"/>
+      <c r="AW56" s="196"/>
     </row>
     <row r="57" spans="44:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR57" s="211" t="s">
+      <c r="AR57" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="AS57" s="211" t="s">
+      <c r="AS57" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="AT57" s="211" t="s">
-        <v>365</v>
-      </c>
-      <c r="AU57" s="211" t="s">
+      <c r="AT57" s="134" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU57" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="AV57" s="211" t="s">
+      <c r="AV57" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="AW57" s="211" t="s">
+      <c r="AW57" s="134" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="58" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR58" s="212" t="s">
+      <c r="AR58" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="AS58" s="213">
+      <c r="AS58" s="136">
         <v>50</v>
       </c>
-      <c r="AT58" s="213"/>
-      <c r="AU58" s="213">
+      <c r="AT58" s="136"/>
+      <c r="AU58" s="136">
         <f>6.55*3.3</f>
         <v>21.614999999999998</v>
       </c>
-      <c r="AV58" s="213"/>
-      <c r="AW58" s="214">
+      <c r="AV58" s="136"/>
+      <c r="AW58" s="137">
         <f>AS58*AU58</f>
         <v>1080.75</v>
       </c>
     </row>
     <row r="59" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR59" s="212" t="s">
+      <c r="AR59" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="AS59" s="213">
+      <c r="AS59" s="136">
         <v>500</v>
       </c>
-      <c r="AT59" s="213"/>
-      <c r="AU59" s="213">
+      <c r="AT59" s="136"/>
+      <c r="AU59" s="136">
         <f>6.55*3.3</f>
         <v>21.614999999999998</v>
       </c>
-      <c r="AV59" s="213"/>
-      <c r="AW59" s="214">
+      <c r="AV59" s="136"/>
+      <c r="AW59" s="137">
         <f>AS59*AU59</f>
         <v>10807.5</v>
       </c>
     </row>
     <row r="60" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR60" s="212" t="s">
-        <v>360</v>
-      </c>
-      <c r="AS60" s="213">
+      <c r="AR60" s="135" t="s">
+        <v>357</v>
+      </c>
+      <c r="AS60" s="136">
         <v>150</v>
       </c>
-      <c r="AT60" s="213"/>
-      <c r="AU60" s="213">
+      <c r="AT60" s="136"/>
+      <c r="AU60" s="136">
         <f>6.55*3.3</f>
         <v>21.614999999999998</v>
       </c>
-      <c r="AV60" s="213"/>
-      <c r="AW60" s="214">
+      <c r="AV60" s="136"/>
+      <c r="AW60" s="137">
         <f>AS60*AU60</f>
         <v>3242.2499999999995</v>
       </c>
     </row>
     <row r="61" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR61" s="212" t="s">
+      <c r="AR61" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="AS61" s="213">
+      <c r="AS61" s="136">
         <f>0.12*2400</f>
         <v>288</v>
       </c>
-      <c r="AT61" s="213"/>
-      <c r="AU61" s="213">
+      <c r="AT61" s="136"/>
+      <c r="AU61" s="136">
         <f>6.55*3.3</f>
         <v>21.614999999999998</v>
       </c>
-      <c r="AV61" s="213"/>
-      <c r="AW61" s="214">
+      <c r="AV61" s="136"/>
+      <c r="AW61" s="137">
         <f>AS61*AU61</f>
         <v>6225.12</v>
       </c>
     </row>
     <row r="62" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR62" s="212" t="s">
+      <c r="AR62" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="AS62" s="213"/>
-      <c r="AT62" s="213">
+      <c r="AS62" s="136"/>
+      <c r="AT62" s="136">
         <f>0.15*3.2*2000</f>
         <v>960</v>
       </c>
-      <c r="AU62" s="213"/>
-      <c r="AV62" s="213">
+      <c r="AU62" s="136"/>
+      <c r="AV62" s="136">
         <v>9.85</v>
       </c>
-      <c r="AW62" s="214">
+      <c r="AW62" s="137">
         <f>AV62*AT62</f>
         <v>9456</v>
       </c>
     </row>
     <row r="63" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR63" s="212" t="s">
+      <c r="AR63" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="AS63" s="213"/>
-      <c r="AT63" s="213">
+      <c r="AS63" s="136"/>
+      <c r="AT63" s="136">
         <f>0.3*0.6*2400</f>
         <v>432</v>
       </c>
-      <c r="AU63" s="213"/>
-      <c r="AV63" s="213">
+      <c r="AU63" s="136"/>
+      <c r="AV63" s="136">
         <v>9.85</v>
       </c>
-      <c r="AW63" s="214">
+      <c r="AW63" s="137">
         <f>AV63*AT63</f>
         <v>4255.2</v>
       </c>
     </row>
     <row r="64" spans="44:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR64" s="215" t="s">
+      <c r="AR64" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="AS64" s="216"/>
-      <c r="AT64" s="216">
+      <c r="AS64" s="139"/>
+      <c r="AT64" s="139">
         <f>0.4*0.4*2400</f>
         <v>384.00000000000006</v>
       </c>
-      <c r="AU64" s="216"/>
-      <c r="AV64" s="216">
+      <c r="AU64" s="139"/>
+      <c r="AV64" s="139">
         <v>3.65</v>
       </c>
-      <c r="AW64" s="214">
+      <c r="AW64" s="137">
         <f>AV64*AT64</f>
         <v>1401.6000000000001</v>
       </c>
     </row>
     <row r="65" spans="44:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR65" s="217"/>
-      <c r="AS65" s="217"/>
-      <c r="AT65" s="217"/>
-      <c r="AU65" s="217"/>
-      <c r="AV65" s="218" t="s">
+      <c r="AR65" s="140"/>
+      <c r="AS65" s="140"/>
+      <c r="AT65" s="140"/>
+      <c r="AU65" s="140"/>
+      <c r="AV65" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AW65" s="218">
+      <c r="AW65" s="141">
         <f>SUM(AW58:AW64)</f>
         <v>36468.42</v>
       </c>
     </row>
     <row r="66" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR66" s="219"/>
-      <c r="AS66" s="219"/>
-      <c r="AT66" s="219"/>
-      <c r="AU66" s="219"/>
-      <c r="AV66" s="219"/>
-      <c r="AW66" s="219"/>
+      <c r="AR66" s="142"/>
+      <c r="AS66" s="142"/>
+      <c r="AT66" s="142"/>
+      <c r="AU66" s="142"/>
+      <c r="AV66" s="142"/>
+      <c r="AW66" s="142"/>
     </row>
     <row r="67" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR67" s="219"/>
-      <c r="AS67" s="219"/>
-      <c r="AT67" s="219"/>
-      <c r="AU67" s="219"/>
-      <c r="AV67" s="219"/>
-      <c r="AW67" s="219"/>
+      <c r="AR67" s="142"/>
+      <c r="AS67" s="142"/>
+      <c r="AT67" s="142"/>
+      <c r="AU67" s="142"/>
+      <c r="AV67" s="142"/>
+      <c r="AW67" s="142"/>
     </row>
     <row r="68" spans="44:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR68" s="219"/>
-      <c r="AS68" s="219"/>
-      <c r="AT68" s="219"/>
-      <c r="AU68" s="219"/>
-      <c r="AV68" s="219"/>
-      <c r="AW68" s="219"/>
+      <c r="AR68" s="142"/>
+      <c r="AS68" s="142"/>
+      <c r="AT68" s="142"/>
+      <c r="AU68" s="142"/>
+      <c r="AV68" s="142"/>
+      <c r="AW68" s="142"/>
     </row>
     <row r="69" spans="44:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR69" s="208" t="s">
+      <c r="AR69" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="AS69" s="209"/>
-      <c r="AT69" s="209"/>
-      <c r="AU69" s="209"/>
-      <c r="AV69" s="209"/>
-      <c r="AW69" s="210"/>
+      <c r="AS69" s="195"/>
+      <c r="AT69" s="195"/>
+      <c r="AU69" s="195"/>
+      <c r="AV69" s="195"/>
+      <c r="AW69" s="196"/>
     </row>
     <row r="70" spans="44:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR70" s="211" t="s">
+      <c r="AR70" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="AS70" s="211" t="s">
+      <c r="AS70" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="AT70" s="211"/>
-      <c r="AU70" s="211" t="s">
+      <c r="AT70" s="134"/>
+      <c r="AU70" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="AV70" s="211" t="s">
+      <c r="AV70" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="AW70" s="211" t="s">
+      <c r="AW70" s="134" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="71" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR71" s="220" t="s">
+      <c r="AR71" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="AS71" s="221">
+      <c r="AS71" s="144">
         <v>25</v>
       </c>
-      <c r="AT71" s="221"/>
-      <c r="AU71" s="221">
+      <c r="AT71" s="144"/>
+      <c r="AU71" s="144">
         <v>78.209999999999994</v>
       </c>
-      <c r="AV71" s="221"/>
-      <c r="AW71" s="222">
+      <c r="AV71" s="144"/>
+      <c r="AW71" s="145">
         <f>AS71*AU71</f>
         <v>1955.2499999999998</v>
       </c>
     </row>
     <row r="72" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR72" s="212" t="s">
+      <c r="AR72" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="AS72" s="213">
+      <c r="AS72" s="136">
         <v>25</v>
       </c>
-      <c r="AT72" s="213"/>
-      <c r="AU72" s="213">
+      <c r="AT72" s="136"/>
+      <c r="AU72" s="136">
         <v>16.8</v>
       </c>
-      <c r="AV72" s="213"/>
-      <c r="AW72" s="214">
+      <c r="AV72" s="136"/>
+      <c r="AW72" s="137">
         <f t="shared" ref="AW72:AW78" si="2">AS72*AU72</f>
         <v>420</v>
       </c>
     </row>
     <row r="73" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR73" s="212" t="s">
+      <c r="AR73" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="AS73" s="213">
+      <c r="AS73" s="136">
         <v>35</v>
       </c>
-      <c r="AT73" s="213"/>
-      <c r="AU73" s="213">
+      <c r="AT73" s="136"/>
+      <c r="AU73" s="136">
         <v>16.8</v>
       </c>
-      <c r="AV73" s="213"/>
-      <c r="AW73" s="214">
+      <c r="AV73" s="136"/>
+      <c r="AW73" s="137">
         <f t="shared" si="2"/>
         <v>588</v>
       </c>
     </row>
     <row r="74" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR74" s="212" t="s">
+      <c r="AR74" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="AS74" s="213">
+      <c r="AS74" s="136">
         <v>120</v>
       </c>
-      <c r="AT74" s="213"/>
-      <c r="AU74" s="213">
+      <c r="AT74" s="136"/>
+      <c r="AU74" s="136">
         <v>13.8</v>
       </c>
-      <c r="AV74" s="213"/>
-      <c r="AW74" s="214">
+      <c r="AV74" s="136"/>
+      <c r="AW74" s="137">
         <f t="shared" si="2"/>
         <v>1656</v>
       </c>
     </row>
     <row r="75" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR75" s="212" t="s">
+      <c r="AR75" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="AS75" s="213">
+      <c r="AS75" s="136">
         <v>250</v>
       </c>
-      <c r="AT75" s="213"/>
-      <c r="AU75" s="213">
+      <c r="AT75" s="136"/>
+      <c r="AU75" s="136">
         <v>16.8</v>
       </c>
-      <c r="AV75" s="213"/>
-      <c r="AW75" s="214">
+      <c r="AV75" s="136"/>
+      <c r="AW75" s="137">
         <f t="shared" si="2"/>
         <v>4200</v>
       </c>
     </row>
     <row r="76" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR76" s="212" t="s">
+      <c r="AR76" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="AS76" s="213">
+      <c r="AS76" s="136">
         <v>288</v>
       </c>
-      <c r="AT76" s="213"/>
-      <c r="AU76" s="213">
+      <c r="AT76" s="136"/>
+      <c r="AU76" s="136">
         <v>23.04</v>
       </c>
-      <c r="AV76" s="213"/>
-      <c r="AW76" s="214">
+      <c r="AV76" s="136"/>
+      <c r="AW76" s="137">
         <f t="shared" si="2"/>
         <v>6635.5199999999995</v>
       </c>
     </row>
     <row r="77" spans="44:49" x14ac:dyDescent="0.25">
-      <c r="AR77" s="212" t="s">
+      <c r="AR77" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="AS77" s="213">
+      <c r="AS77" s="136">
         <v>300</v>
       </c>
-      <c r="AT77" s="213"/>
-      <c r="AU77" s="213">
+      <c r="AT77" s="136"/>
+      <c r="AU77" s="136">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AV77" s="213"/>
-      <c r="AW77" s="214">
+      <c r="AV77" s="136"/>
+      <c r="AW77" s="137">
         <f t="shared" si="2"/>
         <v>2460</v>
       </c>
     </row>
     <row r="78" spans="44:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR78" s="215" t="s">
+      <c r="AR78" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="AS78" s="216">
+      <c r="AS78" s="139">
         <v>384</v>
       </c>
-      <c r="AT78" s="216"/>
-      <c r="AU78" s="216">
+      <c r="AT78" s="139"/>
+      <c r="AU78" s="139">
         <v>4.7</v>
       </c>
-      <c r="AV78" s="216"/>
-      <c r="AW78" s="223">
+      <c r="AV78" s="139"/>
+      <c r="AW78" s="146">
         <f t="shared" si="2"/>
         <v>1804.8000000000002</v>
       </c>
     </row>
     <row r="79" spans="44:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AR79" s="217"/>
-      <c r="AS79" s="217"/>
-      <c r="AT79" s="217"/>
-      <c r="AU79" s="217"/>
-      <c r="AV79" s="218" t="s">
+      <c r="AR79" s="140"/>
+      <c r="AS79" s="140"/>
+      <c r="AT79" s="140"/>
+      <c r="AU79" s="140"/>
+      <c r="AV79" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AW79" s="218">
+      <c r="AW79" s="141">
         <f>SUM(AW71:AW78)</f>
         <v>19719.57</v>
       </c>
     </row>
     <row r="80" spans="44:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="51:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AY81" s="142" t="s">
+      <c r="AY81" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="AZ81" s="143"/>
-      <c r="BA81" s="143"/>
-      <c r="BB81" s="144"/>
+      <c r="AZ81" s="151"/>
+      <c r="BA81" s="151"/>
+      <c r="BB81" s="152"/>
     </row>
     <row r="82" spans="51:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AY82" s="52" t="s">
@@ -19837,7 +19984,7 @@
     </row>
     <row r="83" spans="51:61" x14ac:dyDescent="0.25">
       <c r="AY83" s="53" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AZ83" s="3">
         <v>200</v>
@@ -19853,7 +20000,7 @@
     </row>
     <row r="84" spans="51:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AY84" s="55" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AZ84" s="56">
         <v>200</v>
@@ -19875,13 +20022,13 @@
     </row>
     <row r="86" spans="51:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="51:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="BE87" s="142" t="s">
+      <c r="BE87" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="BF87" s="143"/>
-      <c r="BG87" s="143"/>
-      <c r="BH87" s="143"/>
-      <c r="BI87" s="144"/>
+      <c r="BF87" s="151"/>
+      <c r="BG87" s="151"/>
+      <c r="BH87" s="151"/>
+      <c r="BI87" s="152"/>
     </row>
     <row r="88" spans="51:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BE88" s="52" t="s">
@@ -19952,13 +20099,13 @@
     </row>
     <row r="108" spans="57:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="57:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="BE109" s="142" t="s">
+      <c r="BE109" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="BF109" s="143"/>
-      <c r="BG109" s="143"/>
-      <c r="BH109" s="143"/>
-      <c r="BI109" s="144"/>
+      <c r="BF109" s="151"/>
+      <c r="BG109" s="151"/>
+      <c r="BH109" s="151"/>
+      <c r="BI109" s="152"/>
     </row>
     <row r="110" spans="57:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BE110" s="52" t="s">
@@ -20105,24 +20252,24 @@
       </c>
     </row>
     <row r="125" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BK125" s="181" t="s">
+      <c r="BK125" s="198" t="s">
         <v>67</v>
       </c>
-      <c r="BL125" s="182"/>
-      <c r="BM125" s="182"/>
-      <c r="BN125" s="182"/>
+      <c r="BL125" s="199"/>
+      <c r="BM125" s="199"/>
+      <c r="BN125" s="199"/>
       <c r="BO125" s="2">
         <f>SUM(BO121:BO124)</f>
         <v>152848.08000000002</v>
       </c>
     </row>
     <row r="126" spans="57:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="BK126" s="183" t="s">
+      <c r="BK126" s="200" t="s">
         <v>68</v>
       </c>
-      <c r="BL126" s="184"/>
-      <c r="BM126" s="184"/>
-      <c r="BN126" s="184"/>
+      <c r="BL126" s="201"/>
+      <c r="BM126" s="201"/>
+      <c r="BN126" s="201"/>
       <c r="BO126" s="57">
         <f>BO125/1000</f>
         <v>152.84808000000001</v>
@@ -20218,24 +20365,24 @@
       </c>
     </row>
     <row r="132" spans="63:72" x14ac:dyDescent="0.25">
-      <c r="BK132" s="181" t="s">
+      <c r="BK132" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="BL132" s="182"/>
-      <c r="BM132" s="182"/>
-      <c r="BN132" s="182"/>
+      <c r="BL132" s="199"/>
+      <c r="BM132" s="199"/>
+      <c r="BN132" s="199"/>
       <c r="BO132" s="2">
         <f>SUM(BO128:BO131)</f>
         <v>137077.12</v>
       </c>
     </row>
     <row r="133" spans="63:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="BK133" s="183" t="s">
+      <c r="BK133" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="BL133" s="184"/>
-      <c r="BM133" s="184"/>
-      <c r="BN133" s="184"/>
+      <c r="BL133" s="201"/>
+      <c r="BM133" s="201"/>
+      <c r="BN133" s="201"/>
       <c r="BO133" s="57">
         <f>BO132/1000</f>
         <v>137.07712000000001</v>
@@ -20283,11 +20430,11 @@
     </row>
     <row r="144" spans="63:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="145" spans="74:83" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="BV145" s="146" t="s">
+      <c r="BV145" s="202" t="s">
         <v>75</v>
       </c>
-      <c r="BW145" s="147"/>
-      <c r="BX145" s="148"/>
+      <c r="BW145" s="203"/>
+      <c r="BX145" s="184"/>
       <c r="BY145" s="68">
         <v>200</v>
       </c>
@@ -20296,11 +20443,11 @@
       </c>
     </row>
     <row r="146" spans="74:83" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="BV146" s="149" t="s">
+      <c r="BV146" s="204" t="s">
         <v>76</v>
       </c>
-      <c r="BW146" s="150"/>
-      <c r="BX146" s="151"/>
+      <c r="BW146" s="205"/>
+      <c r="BX146" s="186"/>
       <c r="BY146" s="70">
         <v>0.25</v>
       </c>
@@ -20364,35 +20511,35 @@
       </c>
     </row>
     <row r="150" spans="74:83" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="BV150" s="179" t="s">
+      <c r="BV150" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="BW150" s="180"/>
-      <c r="BX150" s="180"/>
-      <c r="BY150" s="180"/>
+      <c r="BW150" s="197"/>
+      <c r="BX150" s="197"/>
+      <c r="BY150" s="197"/>
       <c r="BZ150" s="73">
         <f>SUM(BZ148:BZ149)</f>
         <v>9800</v>
       </c>
     </row>
     <row r="151" spans="74:83" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="BV151" s="177" t="s">
+      <c r="BV151" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="BW151" s="178"/>
-      <c r="BX151" s="178"/>
-      <c r="BY151" s="178"/>
+      <c r="BW151" s="190"/>
+      <c r="BX151" s="190"/>
+      <c r="BY151" s="190"/>
       <c r="BZ151" s="74">
         <f>BZ150/1000</f>
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="152" spans="74:83" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="BV152" s="146" t="s">
+      <c r="BV152" s="202" t="s">
         <v>75</v>
       </c>
-      <c r="BW152" s="147"/>
-      <c r="BX152" s="148"/>
+      <c r="BW152" s="203"/>
+      <c r="BX152" s="184"/>
       <c r="BY152" s="68">
         <v>200</v>
       </c>
@@ -20401,11 +20548,11 @@
       </c>
     </row>
     <row r="153" spans="74:83" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="BV153" s="149" t="s">
+      <c r="BV153" s="204" t="s">
         <v>76</v>
       </c>
-      <c r="BW153" s="150"/>
-      <c r="BX153" s="151"/>
+      <c r="BW153" s="205"/>
+      <c r="BX153" s="186"/>
       <c r="BY153" s="70">
         <v>0.25</v>
       </c>
@@ -20469,36 +20616,36 @@
       </c>
     </row>
     <row r="157" spans="74:83" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="BV157" s="179" t="s">
+      <c r="BV157" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="BW157" s="180"/>
-      <c r="BX157" s="180"/>
-      <c r="BY157" s="180"/>
+      <c r="BW157" s="197"/>
+      <c r="BX157" s="197"/>
+      <c r="BY157" s="197"/>
       <c r="BZ157" s="73">
         <f>SUM(BZ155:BZ156)</f>
         <v>9800</v>
       </c>
     </row>
     <row r="158" spans="74:83" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="BV158" s="177" t="s">
+      <c r="BV158" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="BW158" s="178"/>
-      <c r="BX158" s="178"/>
-      <c r="BY158" s="178"/>
+      <c r="BW158" s="190"/>
+      <c r="BX158" s="190"/>
+      <c r="BY158" s="190"/>
       <c r="BZ158" s="74">
         <f>BZ157/1000</f>
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="159" spans="74:83" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CB159" s="169" t="s">
+      <c r="CB159" s="167" t="s">
         <v>93</v>
       </c>
-      <c r="CC159" s="185"/>
-      <c r="CD159" s="185"/>
-      <c r="CE159" s="170"/>
+      <c r="CC159" s="168"/>
+      <c r="CD159" s="168"/>
+      <c r="CE159" s="169"/>
     </row>
     <row r="160" spans="74:83" ht="15.75" x14ac:dyDescent="0.25">
       <c r="CB160" s="80" t="s">
@@ -20664,10 +20811,10 @@
       </c>
     </row>
     <row r="174" spans="80:91" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CH174" s="177" t="s">
+      <c r="CH174" s="159" t="s">
         <v>243</v>
       </c>
-      <c r="CI174" s="178"/>
+      <c r="CI174" s="190"/>
       <c r="CJ174" s="79">
         <f>CJ172+CJ173</f>
         <v>309525.2</v>
@@ -20686,51 +20833,51 @@
     </row>
     <row r="176" spans="80:91" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="177" spans="94:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CP177" s="169" t="s">
+      <c r="CP177" s="167" t="s">
         <v>302</v>
       </c>
-      <c r="CQ177" s="185"/>
-      <c r="CR177" s="185"/>
-      <c r="CS177" s="185"/>
-      <c r="CT177" s="185"/>
-      <c r="CU177" s="185"/>
-      <c r="CV177" s="185"/>
-      <c r="CW177" s="185"/>
-      <c r="CX177" s="185"/>
-      <c r="CY177" s="185"/>
-      <c r="CZ177" s="185"/>
-      <c r="DA177" s="170"/>
+      <c r="CQ177" s="168"/>
+      <c r="CR177" s="168"/>
+      <c r="CS177" s="168"/>
+      <c r="CT177" s="168"/>
+      <c r="CU177" s="168"/>
+      <c r="CV177" s="168"/>
+      <c r="CW177" s="168"/>
+      <c r="CX177" s="168"/>
+      <c r="CY177" s="168"/>
+      <c r="CZ177" s="168"/>
+      <c r="DA177" s="169"/>
     </row>
     <row r="178" spans="94:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CP178" s="193" t="s">
+      <c r="CP178" s="170" t="s">
         <v>296</v>
       </c>
-      <c r="CQ178" s="169" t="s">
+      <c r="CQ178" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="CR178" s="170"/>
-      <c r="CS178" s="171" t="s">
+      <c r="CR178" s="169"/>
+      <c r="CS178" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="CT178" s="172"/>
-      <c r="CU178" s="169" t="s">
+      <c r="CT178" s="179"/>
+      <c r="CU178" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="CV178" s="170"/>
-      <c r="CW178" s="165" t="s">
+      <c r="CV178" s="169"/>
+      <c r="CW178" s="182" t="s">
         <v>298</v>
       </c>
-      <c r="CX178" s="167"/>
-      <c r="CY178" s="165" t="s">
+      <c r="CX178" s="183"/>
+      <c r="CY178" s="182" t="s">
         <v>299</v>
       </c>
-      <c r="CZ178" s="167"/>
-      <c r="DA178" s="190" t="s">
+      <c r="CZ178" s="183"/>
+      <c r="DA178" s="173" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="179" spans="94:116" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="CP179" s="194"/>
+      <c r="CP179" s="171"/>
       <c r="CQ179" s="86" t="s">
         <v>297</v>
       </c>
@@ -20761,10 +20908,10 @@
       <c r="CZ179" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="DA179" s="191"/>
+      <c r="DA179" s="174"/>
     </row>
     <row r="180" spans="94:116" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="CP180" s="194"/>
+      <c r="CP180" s="171"/>
       <c r="CQ180" s="71">
         <f>0.2*0.4*2400</f>
         <v>192.00000000000003</v>
@@ -20797,50 +20944,50 @@
       <c r="CZ180" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="DA180" s="191"/>
+      <c r="DA180" s="174"/>
     </row>
     <row r="181" spans="94:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="CP181" s="195"/>
-      <c r="CQ181" s="173" t="s">
+      <c r="CP181" s="172"/>
+      <c r="CQ181" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="CR181" s="174"/>
-      <c r="CS181" s="175" t="s">
+      <c r="CR181" s="177"/>
+      <c r="CS181" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="CT181" s="176"/>
-      <c r="CU181" s="173" t="s">
+      <c r="CT181" s="181"/>
+      <c r="CU181" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="CV181" s="174"/>
-      <c r="CW181" s="175" t="s">
+      <c r="CV181" s="177"/>
+      <c r="CW181" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="CX181" s="176"/>
-      <c r="CY181" s="173" t="s">
+      <c r="CX181" s="181"/>
+      <c r="CY181" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="CZ181" s="174"/>
-      <c r="DA181" s="192"/>
+      <c r="CZ181" s="177"/>
+      <c r="DA181" s="175"/>
     </row>
     <row r="182" spans="94:116" ht="15.75" x14ac:dyDescent="0.25">
       <c r="CP182" s="121">
         <v>1</v>
       </c>
-      <c r="CQ182" s="186">
+      <c r="CQ182" s="165">
         <v>20</v>
       </c>
-      <c r="CR182" s="187"/>
-      <c r="CS182" s="148"/>
-      <c r="CT182" s="196"/>
-      <c r="CU182" s="186">
+      <c r="CR182" s="166"/>
+      <c r="CS182" s="184"/>
+      <c r="CT182" s="185"/>
+      <c r="CU182" s="165">
         <v>20</v>
       </c>
-      <c r="CV182" s="187"/>
-      <c r="CW182" s="148"/>
-      <c r="CX182" s="196"/>
-      <c r="CY182" s="186"/>
-      <c r="CZ182" s="187"/>
+      <c r="CV182" s="166"/>
+      <c r="CW182" s="184"/>
+      <c r="CX182" s="185"/>
+      <c r="CY182" s="165"/>
+      <c r="CZ182" s="166"/>
       <c r="DA182" s="118">
         <f t="shared" ref="DA182:DA187" si="3">CQ182*$CQ$180+CS182*$CS$180+CU182*$CU$180+CW182*$CW$180+CY182*$CY$180</f>
         <v>3840.0000000000005</v>
@@ -20850,18 +20997,18 @@
       <c r="CP183" s="122">
         <v>2</v>
       </c>
-      <c r="CQ183" s="179">
+      <c r="CQ183" s="161">
         <v>20</v>
       </c>
-      <c r="CR183" s="188"/>
-      <c r="CS183" s="151"/>
-      <c r="CT183" s="197"/>
-      <c r="CU183" s="179"/>
-      <c r="CV183" s="188"/>
-      <c r="CW183" s="151"/>
-      <c r="CX183" s="197"/>
-      <c r="CY183" s="179"/>
-      <c r="CZ183" s="188"/>
+      <c r="CR183" s="162"/>
+      <c r="CS183" s="186"/>
+      <c r="CT183" s="187"/>
+      <c r="CU183" s="161"/>
+      <c r="CV183" s="162"/>
+      <c r="CW183" s="186"/>
+      <c r="CX183" s="187"/>
+      <c r="CY183" s="161"/>
+      <c r="CZ183" s="162"/>
       <c r="DA183" s="119">
         <f t="shared" si="3"/>
         <v>3840.0000000000005</v>
@@ -20871,20 +21018,20 @@
       <c r="CP184" s="122">
         <v>3</v>
       </c>
-      <c r="CQ184" s="179">
+      <c r="CQ184" s="161">
         <v>20</v>
       </c>
-      <c r="CR184" s="188"/>
-      <c r="CS184" s="151"/>
-      <c r="CT184" s="197"/>
-      <c r="CU184" s="179">
+      <c r="CR184" s="162"/>
+      <c r="CS184" s="186"/>
+      <c r="CT184" s="187"/>
+      <c r="CU184" s="161">
         <v>20</v>
       </c>
-      <c r="CV184" s="188"/>
-      <c r="CW184" s="151"/>
-      <c r="CX184" s="197"/>
-      <c r="CY184" s="179"/>
-      <c r="CZ184" s="188"/>
+      <c r="CV184" s="162"/>
+      <c r="CW184" s="186"/>
+      <c r="CX184" s="187"/>
+      <c r="CY184" s="161"/>
+      <c r="CZ184" s="162"/>
       <c r="DA184" s="119">
         <f t="shared" si="3"/>
         <v>3840.0000000000005</v>
@@ -20894,19 +21041,19 @@
       <c r="CP185" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="CQ185" s="179"/>
-      <c r="CR185" s="188"/>
-      <c r="CS185" s="151">
+      <c r="CQ185" s="161"/>
+      <c r="CR185" s="162"/>
+      <c r="CS185" s="186">
         <f>20*8</f>
         <v>160</v>
       </c>
-      <c r="CT185" s="197"/>
-      <c r="CU185" s="179"/>
-      <c r="CV185" s="188"/>
-      <c r="CW185" s="151"/>
-      <c r="CX185" s="197"/>
-      <c r="CY185" s="179"/>
-      <c r="CZ185" s="188"/>
+      <c r="CT185" s="187"/>
+      <c r="CU185" s="161"/>
+      <c r="CV185" s="162"/>
+      <c r="CW185" s="186"/>
+      <c r="CX185" s="187"/>
+      <c r="CY185" s="161"/>
+      <c r="CZ185" s="162"/>
       <c r="DA185" s="119">
         <f t="shared" si="3"/>
         <v>48000</v>
@@ -20916,19 +21063,19 @@
       <c r="CP186" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="CQ186" s="179"/>
-      <c r="CR186" s="188"/>
-      <c r="CS186" s="151"/>
-      <c r="CT186" s="197"/>
-      <c r="CU186" s="179"/>
-      <c r="CV186" s="188"/>
-      <c r="CW186" s="151">
+      <c r="CQ186" s="161"/>
+      <c r="CR186" s="162"/>
+      <c r="CS186" s="186"/>
+      <c r="CT186" s="187"/>
+      <c r="CU186" s="161"/>
+      <c r="CV186" s="162"/>
+      <c r="CW186" s="186">
         <f>20*6.8</f>
         <v>136</v>
       </c>
-      <c r="CX186" s="197"/>
-      <c r="CY186" s="179"/>
-      <c r="CZ186" s="188"/>
+      <c r="CX186" s="187"/>
+      <c r="CY186" s="161"/>
+      <c r="CZ186" s="162"/>
       <c r="DA186" s="119">
         <f t="shared" si="3"/>
         <v>27200</v>
@@ -20938,19 +21085,19 @@
       <c r="CP187" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="CQ187" s="177"/>
-      <c r="CR187" s="189"/>
-      <c r="CS187" s="198"/>
-      <c r="CT187" s="199"/>
-      <c r="CU187" s="177"/>
-      <c r="CV187" s="189"/>
-      <c r="CW187" s="198"/>
-      <c r="CX187" s="199"/>
-      <c r="CY187" s="177">
+      <c r="CQ187" s="159"/>
+      <c r="CR187" s="160"/>
+      <c r="CS187" s="188"/>
+      <c r="CT187" s="189"/>
+      <c r="CU187" s="159"/>
+      <c r="CV187" s="160"/>
+      <c r="CW187" s="188"/>
+      <c r="CX187" s="189"/>
+      <c r="CY187" s="159">
         <f>20*1.2</f>
         <v>24</v>
       </c>
-      <c r="CZ187" s="189"/>
+      <c r="CZ187" s="160"/>
       <c r="DA187" s="120">
         <f t="shared" si="3"/>
         <v>12000</v>
@@ -20958,45 +21105,45 @@
     </row>
     <row r="189" spans="94:116" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="190" spans="94:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DC190" s="169" t="s">
+      <c r="DC190" s="167" t="s">
         <v>304</v>
       </c>
-      <c r="DD190" s="185"/>
-      <c r="DE190" s="185"/>
-      <c r="DF190" s="185"/>
-      <c r="DG190" s="185"/>
-      <c r="DH190" s="185"/>
-      <c r="DI190" s="185"/>
-      <c r="DJ190" s="185"/>
-      <c r="DK190" s="185"/>
-      <c r="DL190" s="170"/>
+      <c r="DD190" s="168"/>
+      <c r="DE190" s="168"/>
+      <c r="DF190" s="168"/>
+      <c r="DG190" s="168"/>
+      <c r="DH190" s="168"/>
+      <c r="DI190" s="168"/>
+      <c r="DJ190" s="168"/>
+      <c r="DK190" s="168"/>
+      <c r="DL190" s="169"/>
     </row>
     <row r="191" spans="94:116" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DC191" s="193" t="s">
+      <c r="DC191" s="170" t="s">
         <v>296</v>
       </c>
-      <c r="DD191" s="169" t="s">
+      <c r="DD191" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="DE191" s="170"/>
-      <c r="DF191" s="169" t="s">
+      <c r="DE191" s="169"/>
+      <c r="DF191" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="DG191" s="170"/>
-      <c r="DH191" s="171" t="s">
+      <c r="DG191" s="169"/>
+      <c r="DH191" s="178" t="s">
         <v>311</v>
       </c>
-      <c r="DI191" s="172"/>
-      <c r="DJ191" s="169" t="s">
+      <c r="DI191" s="179"/>
+      <c r="DJ191" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="DK191" s="170"/>
-      <c r="DL191" s="190" t="s">
+      <c r="DK191" s="169"/>
+      <c r="DL191" s="173" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="192" spans="94:116" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="DC192" s="194"/>
+      <c r="DC192" s="171"/>
       <c r="DD192" s="86" t="s">
         <v>297</v>
       </c>
@@ -21021,10 +21168,10 @@
       <c r="DK192" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="DL192" s="191"/>
+      <c r="DL192" s="174"/>
     </row>
     <row r="193" spans="107:122" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="DC193" s="194"/>
+      <c r="DC193" s="171"/>
       <c r="DD193" s="71">
         <f>0.2*0.4*2400</f>
         <v>192.00000000000003</v>
@@ -21052,46 +21199,46 @@
       <c r="DK193" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="DL193" s="191"/>
+      <c r="DL193" s="174"/>
     </row>
     <row r="194" spans="107:122" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DC194" s="195"/>
-      <c r="DD194" s="173" t="s">
+      <c r="DC194" s="172"/>
+      <c r="DD194" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="DE194" s="174"/>
-      <c r="DF194" s="173" t="s">
+      <c r="DE194" s="177"/>
+      <c r="DF194" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="DG194" s="174"/>
-      <c r="DH194" s="175" t="s">
+      <c r="DG194" s="177"/>
+      <c r="DH194" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="DI194" s="176"/>
-      <c r="DJ194" s="173" t="s">
+      <c r="DI194" s="181"/>
+      <c r="DJ194" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="DK194" s="174"/>
-      <c r="DL194" s="192"/>
+      <c r="DK194" s="177"/>
+      <c r="DL194" s="175"/>
     </row>
     <row r="195" spans="107:122" ht="15.75" x14ac:dyDescent="0.25">
       <c r="DC195" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="DD195" s="186">
+      <c r="DD195" s="165">
         <v>8</v>
       </c>
-      <c r="DE195" s="187"/>
-      <c r="DF195" s="186">
+      <c r="DE195" s="166"/>
+      <c r="DF195" s="165">
         <v>3</v>
       </c>
-      <c r="DG195" s="187"/>
-      <c r="DH195" s="186"/>
-      <c r="DI195" s="187"/>
-      <c r="DJ195" s="186">
+      <c r="DG195" s="166"/>
+      <c r="DH195" s="165"/>
+      <c r="DI195" s="166"/>
+      <c r="DJ195" s="165">
         <v>6.8</v>
       </c>
-      <c r="DK195" s="187"/>
+      <c r="DK195" s="166"/>
       <c r="DL195" s="117">
         <f>DD195*$CQ$180+DF195*$CS$180+DJ195*$CU$180</f>
         <v>2436</v>
@@ -21101,18 +21248,18 @@
       <c r="DC196" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="DD196" s="179">
+      <c r="DD196" s="161">
         <v>8</v>
       </c>
-      <c r="DE196" s="188"/>
-      <c r="DF196" s="179"/>
-      <c r="DG196" s="188"/>
-      <c r="DH196" s="179">
+      <c r="DE196" s="162"/>
+      <c r="DF196" s="161"/>
+      <c r="DG196" s="162"/>
+      <c r="DH196" s="161">
         <v>2</v>
       </c>
-      <c r="DI196" s="188"/>
-      <c r="DJ196" s="179"/>
-      <c r="DK196" s="188"/>
+      <c r="DI196" s="162"/>
+      <c r="DJ196" s="161"/>
+      <c r="DK196" s="162"/>
       <c r="DL196" s="10">
         <f t="shared" ref="DL196:DL204" si="4">DD196*$CQ$180+DF196*$CS$180+DJ196*$CU$180</f>
         <v>1536.0000000000002</v>
@@ -21122,18 +21269,18 @@
       <c r="DC197" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="DD197" s="179">
+      <c r="DD197" s="161">
         <v>8</v>
       </c>
-      <c r="DE197" s="188"/>
-      <c r="DF197" s="179"/>
-      <c r="DG197" s="188"/>
-      <c r="DH197" s="179">
+      <c r="DE197" s="162"/>
+      <c r="DF197" s="161"/>
+      <c r="DG197" s="162"/>
+      <c r="DH197" s="161">
         <v>2</v>
       </c>
-      <c r="DI197" s="188"/>
-      <c r="DJ197" s="179"/>
-      <c r="DK197" s="188"/>
+      <c r="DI197" s="162"/>
+      <c r="DJ197" s="161"/>
+      <c r="DK197" s="162"/>
       <c r="DL197" s="10">
         <f t="shared" si="4"/>
         <v>1536.0000000000002</v>
@@ -21143,20 +21290,20 @@
       <c r="DC198" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="DD198" s="179">
+      <c r="DD198" s="161">
         <v>8</v>
       </c>
-      <c r="DE198" s="188"/>
-      <c r="DF198" s="179">
+      <c r="DE198" s="162"/>
+      <c r="DF198" s="161">
         <v>3</v>
       </c>
-      <c r="DG198" s="188"/>
-      <c r="DH198" s="179"/>
-      <c r="DI198" s="188"/>
-      <c r="DJ198" s="200">
+      <c r="DG198" s="162"/>
+      <c r="DH198" s="161"/>
+      <c r="DI198" s="162"/>
+      <c r="DJ198" s="163">
         <v>6.8</v>
       </c>
-      <c r="DK198" s="201"/>
+      <c r="DK198" s="164"/>
       <c r="DL198" s="10">
         <f t="shared" si="4"/>
         <v>2436</v>
@@ -21166,18 +21313,18 @@
       <c r="DC199" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="DD199" s="179">
+      <c r="DD199" s="161">
         <v>8</v>
       </c>
-      <c r="DE199" s="188"/>
-      <c r="DF199" s="179"/>
-      <c r="DG199" s="188"/>
-      <c r="DH199" s="179">
+      <c r="DE199" s="162"/>
+      <c r="DF199" s="161"/>
+      <c r="DG199" s="162"/>
+      <c r="DH199" s="161">
         <v>2</v>
       </c>
-      <c r="DI199" s="188"/>
-      <c r="DJ199" s="179"/>
-      <c r="DK199" s="188"/>
+      <c r="DI199" s="162"/>
+      <c r="DJ199" s="161"/>
+      <c r="DK199" s="162"/>
       <c r="DL199" s="10">
         <f t="shared" si="4"/>
         <v>1536.0000000000002</v>
@@ -21187,18 +21334,18 @@
       <c r="DC200" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="DD200" s="179">
+      <c r="DD200" s="161">
         <v>8</v>
       </c>
-      <c r="DE200" s="188"/>
-      <c r="DF200" s="179"/>
-      <c r="DG200" s="188"/>
-      <c r="DH200" s="179">
+      <c r="DE200" s="162"/>
+      <c r="DF200" s="161"/>
+      <c r="DG200" s="162"/>
+      <c r="DH200" s="161">
         <v>2</v>
       </c>
-      <c r="DI200" s="188"/>
-      <c r="DJ200" s="179"/>
-      <c r="DK200" s="188"/>
+      <c r="DI200" s="162"/>
+      <c r="DJ200" s="161"/>
+      <c r="DK200" s="162"/>
       <c r="DL200" s="10">
         <f t="shared" si="4"/>
         <v>1536.0000000000002</v>
@@ -21208,20 +21355,20 @@
       <c r="DC201" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="DD201" s="200">
+      <c r="DD201" s="163">
         <v>8</v>
       </c>
-      <c r="DE201" s="201"/>
-      <c r="DF201" s="200">
+      <c r="DE201" s="164"/>
+      <c r="DF201" s="163">
         <v>3</v>
       </c>
-      <c r="DG201" s="201"/>
-      <c r="DH201" s="200"/>
-      <c r="DI201" s="201"/>
-      <c r="DJ201" s="200">
+      <c r="DG201" s="164"/>
+      <c r="DH201" s="163"/>
+      <c r="DI201" s="164"/>
+      <c r="DJ201" s="163">
         <v>6.8</v>
       </c>
-      <c r="DK201" s="201"/>
+      <c r="DK201" s="164"/>
       <c r="DL201" s="10">
         <f t="shared" si="4"/>
         <v>2436</v>
@@ -21231,18 +21378,18 @@
       <c r="DC202" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="DD202" s="179">
+      <c r="DD202" s="161">
         <v>8</v>
       </c>
-      <c r="DE202" s="188"/>
-      <c r="DF202" s="179"/>
-      <c r="DG202" s="188"/>
-      <c r="DH202" s="179">
+      <c r="DE202" s="162"/>
+      <c r="DF202" s="161"/>
+      <c r="DG202" s="162"/>
+      <c r="DH202" s="161">
         <v>2</v>
       </c>
-      <c r="DI202" s="188"/>
-      <c r="DJ202" s="179"/>
-      <c r="DK202" s="188"/>
+      <c r="DI202" s="162"/>
+      <c r="DJ202" s="161"/>
+      <c r="DK202" s="162"/>
       <c r="DL202" s="10">
         <f t="shared" si="4"/>
         <v>1536.0000000000002</v>
@@ -21252,18 +21399,18 @@
       <c r="DC203" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="DD203" s="179">
+      <c r="DD203" s="161">
         <v>8</v>
       </c>
-      <c r="DE203" s="188"/>
-      <c r="DF203" s="179"/>
-      <c r="DG203" s="188"/>
-      <c r="DH203" s="179">
+      <c r="DE203" s="162"/>
+      <c r="DF203" s="161"/>
+      <c r="DG203" s="162"/>
+      <c r="DH203" s="161">
         <v>2</v>
       </c>
-      <c r="DI203" s="188"/>
-      <c r="DJ203" s="179"/>
-      <c r="DK203" s="188"/>
+      <c r="DI203" s="162"/>
+      <c r="DJ203" s="161"/>
+      <c r="DK203" s="162"/>
       <c r="DL203" s="10">
         <f t="shared" si="4"/>
         <v>1536.0000000000002</v>
@@ -21273,18 +21420,18 @@
       <c r="DC204" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="DD204" s="177">
+      <c r="DD204" s="159">
         <v>8</v>
       </c>
-      <c r="DE204" s="189"/>
-      <c r="DF204" s="177">
+      <c r="DE204" s="160"/>
+      <c r="DF204" s="159">
         <v>3</v>
       </c>
-      <c r="DG204" s="189"/>
-      <c r="DH204" s="177"/>
-      <c r="DI204" s="189"/>
-      <c r="DJ204" s="177"/>
-      <c r="DK204" s="189"/>
+      <c r="DG204" s="160"/>
+      <c r="DH204" s="159"/>
+      <c r="DI204" s="160"/>
+      <c r="DJ204" s="159"/>
+      <c r="DK204" s="160"/>
       <c r="DL204" s="124">
         <f t="shared" si="4"/>
         <v>2436</v>
@@ -21967,57 +22114,67 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="DD204:DE204"/>
-    <mergeCell ref="DF204:DG204"/>
-    <mergeCell ref="DJ204:DK204"/>
-    <mergeCell ref="DH204:DI204"/>
-    <mergeCell ref="DD203:DE203"/>
-    <mergeCell ref="DF203:DG203"/>
-    <mergeCell ref="DJ203:DK203"/>
-    <mergeCell ref="DH203:DI203"/>
-    <mergeCell ref="DD202:DE202"/>
-    <mergeCell ref="DF202:DG202"/>
-    <mergeCell ref="DJ202:DK202"/>
-    <mergeCell ref="DH202:DI202"/>
-    <mergeCell ref="DD201:DE201"/>
-    <mergeCell ref="DF201:DG201"/>
-    <mergeCell ref="DJ201:DK201"/>
-    <mergeCell ref="DH201:DI201"/>
-    <mergeCell ref="DD200:DE200"/>
-    <mergeCell ref="DF200:DG200"/>
-    <mergeCell ref="DJ200:DK200"/>
-    <mergeCell ref="DH200:DI200"/>
-    <mergeCell ref="DD199:DE199"/>
-    <mergeCell ref="DF199:DG199"/>
-    <mergeCell ref="DJ199:DK199"/>
-    <mergeCell ref="DH199:DI199"/>
-    <mergeCell ref="DD198:DE198"/>
-    <mergeCell ref="DF198:DG198"/>
-    <mergeCell ref="DJ198:DK198"/>
-    <mergeCell ref="DH198:DI198"/>
-    <mergeCell ref="DD197:DE197"/>
-    <mergeCell ref="DF197:DG197"/>
-    <mergeCell ref="DJ197:DK197"/>
-    <mergeCell ref="DH197:DI197"/>
-    <mergeCell ref="DD196:DE196"/>
-    <mergeCell ref="DF196:DG196"/>
-    <mergeCell ref="DJ196:DK196"/>
-    <mergeCell ref="DH196:DI196"/>
-    <mergeCell ref="DD195:DE195"/>
-    <mergeCell ref="DF195:DG195"/>
-    <mergeCell ref="DJ195:DK195"/>
-    <mergeCell ref="DH195:DI195"/>
-    <mergeCell ref="DC190:DL190"/>
-    <mergeCell ref="DC191:DC194"/>
-    <mergeCell ref="DD191:DE191"/>
-    <mergeCell ref="DF191:DG191"/>
-    <mergeCell ref="DJ191:DK191"/>
-    <mergeCell ref="DL191:DL194"/>
-    <mergeCell ref="DD194:DE194"/>
-    <mergeCell ref="DF194:DG194"/>
-    <mergeCell ref="DJ194:DK194"/>
-    <mergeCell ref="DH191:DI191"/>
-    <mergeCell ref="DH194:DI194"/>
+    <mergeCell ref="BV152:BX152"/>
+    <mergeCell ref="BV153:BX153"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AG16:AJ16"/>
+    <mergeCell ref="AR56:AW56"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="CQ178:CR178"/>
+    <mergeCell ref="CS178:CT178"/>
+    <mergeCell ref="CU178:CV178"/>
+    <mergeCell ref="CQ181:CR181"/>
+    <mergeCell ref="CS181:CT181"/>
+    <mergeCell ref="CU181:CV181"/>
+    <mergeCell ref="BV151:BY151"/>
+    <mergeCell ref="CH174:CI174"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AR45:AW45"/>
+    <mergeCell ref="AR69:AW69"/>
+    <mergeCell ref="AY81:BB81"/>
+    <mergeCell ref="BE87:BI87"/>
+    <mergeCell ref="BE109:BI109"/>
+    <mergeCell ref="BV150:BY150"/>
+    <mergeCell ref="BK125:BN125"/>
+    <mergeCell ref="BK126:BN126"/>
+    <mergeCell ref="BK132:BN132"/>
+    <mergeCell ref="BK133:BN133"/>
+    <mergeCell ref="BV145:BX145"/>
+    <mergeCell ref="BV146:BX146"/>
+    <mergeCell ref="CB159:CE159"/>
+    <mergeCell ref="BV157:BY157"/>
+    <mergeCell ref="BV158:BY158"/>
+    <mergeCell ref="CU182:CV182"/>
+    <mergeCell ref="CU183:CV183"/>
+    <mergeCell ref="CU184:CV184"/>
+    <mergeCell ref="CU185:CV185"/>
+    <mergeCell ref="CW181:CX181"/>
+    <mergeCell ref="CY181:CZ181"/>
+    <mergeCell ref="CQ182:CR182"/>
+    <mergeCell ref="CQ183:CR183"/>
+    <mergeCell ref="CQ184:CR184"/>
+    <mergeCell ref="CY182:CZ182"/>
+    <mergeCell ref="CY183:CZ183"/>
+    <mergeCell ref="CY184:CZ184"/>
+    <mergeCell ref="CQ185:CR185"/>
     <mergeCell ref="CQ186:CR186"/>
     <mergeCell ref="CQ187:CR187"/>
     <mergeCell ref="CP177:DA177"/>
@@ -22042,67 +22199,57 @@
     <mergeCell ref="CW186:CX186"/>
     <mergeCell ref="CW187:CX187"/>
     <mergeCell ref="CS185:CT185"/>
-    <mergeCell ref="CU182:CV182"/>
-    <mergeCell ref="CU183:CV183"/>
-    <mergeCell ref="CU184:CV184"/>
-    <mergeCell ref="CU185:CV185"/>
-    <mergeCell ref="CW181:CX181"/>
-    <mergeCell ref="CY181:CZ181"/>
-    <mergeCell ref="CQ182:CR182"/>
-    <mergeCell ref="CQ183:CR183"/>
-    <mergeCell ref="CQ184:CR184"/>
-    <mergeCell ref="CY182:CZ182"/>
-    <mergeCell ref="CY183:CZ183"/>
-    <mergeCell ref="CY184:CZ184"/>
-    <mergeCell ref="CQ185:CR185"/>
-    <mergeCell ref="CQ178:CR178"/>
-    <mergeCell ref="CS178:CT178"/>
-    <mergeCell ref="CU178:CV178"/>
-    <mergeCell ref="CQ181:CR181"/>
-    <mergeCell ref="CS181:CT181"/>
-    <mergeCell ref="CU181:CV181"/>
-    <mergeCell ref="BV151:BY151"/>
-    <mergeCell ref="CH174:CI174"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AR45:AW45"/>
-    <mergeCell ref="AR69:AW69"/>
-    <mergeCell ref="AY81:BB81"/>
-    <mergeCell ref="BE87:BI87"/>
-    <mergeCell ref="BE109:BI109"/>
-    <mergeCell ref="BV150:BY150"/>
-    <mergeCell ref="BK125:BN125"/>
-    <mergeCell ref="BK126:BN126"/>
-    <mergeCell ref="BK132:BN132"/>
-    <mergeCell ref="BK133:BN133"/>
-    <mergeCell ref="BV145:BX145"/>
-    <mergeCell ref="BV146:BX146"/>
-    <mergeCell ref="CB159:CE159"/>
-    <mergeCell ref="BV157:BY157"/>
-    <mergeCell ref="BV158:BY158"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="BV152:BX152"/>
-    <mergeCell ref="BV153:BX153"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AG16:AJ16"/>
-    <mergeCell ref="AR56:AW56"/>
+    <mergeCell ref="DD195:DE195"/>
+    <mergeCell ref="DF195:DG195"/>
+    <mergeCell ref="DJ195:DK195"/>
+    <mergeCell ref="DH195:DI195"/>
+    <mergeCell ref="DC190:DL190"/>
+    <mergeCell ref="DC191:DC194"/>
+    <mergeCell ref="DD191:DE191"/>
+    <mergeCell ref="DF191:DG191"/>
+    <mergeCell ref="DJ191:DK191"/>
+    <mergeCell ref="DL191:DL194"/>
+    <mergeCell ref="DD194:DE194"/>
+    <mergeCell ref="DF194:DG194"/>
+    <mergeCell ref="DJ194:DK194"/>
+    <mergeCell ref="DH191:DI191"/>
+    <mergeCell ref="DH194:DI194"/>
+    <mergeCell ref="DD198:DE198"/>
+    <mergeCell ref="DF198:DG198"/>
+    <mergeCell ref="DJ198:DK198"/>
+    <mergeCell ref="DH198:DI198"/>
+    <mergeCell ref="DD197:DE197"/>
+    <mergeCell ref="DF197:DG197"/>
+    <mergeCell ref="DJ197:DK197"/>
+    <mergeCell ref="DH197:DI197"/>
+    <mergeCell ref="DD196:DE196"/>
+    <mergeCell ref="DF196:DG196"/>
+    <mergeCell ref="DJ196:DK196"/>
+    <mergeCell ref="DH196:DI196"/>
+    <mergeCell ref="DD201:DE201"/>
+    <mergeCell ref="DF201:DG201"/>
+    <mergeCell ref="DJ201:DK201"/>
+    <mergeCell ref="DH201:DI201"/>
+    <mergeCell ref="DD200:DE200"/>
+    <mergeCell ref="DF200:DG200"/>
+    <mergeCell ref="DJ200:DK200"/>
+    <mergeCell ref="DH200:DI200"/>
+    <mergeCell ref="DD199:DE199"/>
+    <mergeCell ref="DF199:DG199"/>
+    <mergeCell ref="DJ199:DK199"/>
+    <mergeCell ref="DH199:DI199"/>
+    <mergeCell ref="DD204:DE204"/>
+    <mergeCell ref="DF204:DG204"/>
+    <mergeCell ref="DJ204:DK204"/>
+    <mergeCell ref="DH204:DI204"/>
+    <mergeCell ref="DD203:DE203"/>
+    <mergeCell ref="DF203:DG203"/>
+    <mergeCell ref="DJ203:DK203"/>
+    <mergeCell ref="DH203:DI203"/>
+    <mergeCell ref="DD202:DE202"/>
+    <mergeCell ref="DF202:DG202"/>
+    <mergeCell ref="DJ202:DK202"/>
+    <mergeCell ref="DH202:DI202"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22111,486 +22258,360 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L38"/>
+  <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="142" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="144"/>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="226" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="228"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="226" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="228"/>
+    </row>
+    <row r="4" spans="2:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="3">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3">
-        <v>78.209999999999994</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4">
-        <f>C6*D6</f>
-        <v>1955.2499999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2">
-        <f t="shared" ref="F7:F13" si="0">C7*D7</f>
-        <v>357.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>500.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1">
-        <v>120</v>
-      </c>
-      <c r="D9" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="1">
-        <v>250</v>
-      </c>
-      <c r="D10" s="1">
-        <v>22.605</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>5651.25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="1">
-        <v>240</v>
-      </c>
-      <c r="D11" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="1">
-        <v>504</v>
-      </c>
-      <c r="D12" s="1">
-        <v>6.85</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>3452.3999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="56">
-        <v>384</v>
-      </c>
-      <c r="D13" s="56">
-        <v>6</v>
-      </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57">
-        <f t="shared" si="0"/>
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="58">
-        <f>SUM(F6:F13)</f>
-        <v>19368.900000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="142" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="52" t="s">
+      <c r="C4" s="229" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" s="229" t="s">
+        <v>388</v>
+      </c>
+      <c r="E4" s="229" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="229" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" s="229" t="s">
+        <v>390</v>
+      </c>
+      <c r="H4" s="231"/>
+    </row>
+    <row r="5" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="241"/>
+      <c r="C5" s="225" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" s="225" t="s">
+        <v>370</v>
+      </c>
+      <c r="E5" s="225" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" s="225" t="s">
+        <v>367</v>
+      </c>
+      <c r="G5" s="225" t="s">
+        <v>368</v>
+      </c>
+      <c r="H5" s="233" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="232" t="s">
+        <v>364</v>
+      </c>
+      <c r="C6" s="224">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="224">
+        <v>0.04</v>
+      </c>
+      <c r="E6" s="224">
+        <f>C6-D6</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="F6" s="224">
+        <v>6.1</v>
+      </c>
+      <c r="G6" s="224">
+        <f>4*E6</f>
+        <v>2.2399999999999998</v>
+      </c>
+      <c r="H6" s="234" t="str">
+        <f>IF(F6&gt;=G6,"Correcto","Incorrecto")</f>
+        <v>Correcto</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="235" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="230">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="230">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="230">
+        <f>C7-D7</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="F7" s="230">
+        <v>2.9</v>
+      </c>
+      <c r="G7" s="230">
+        <f>4*E7</f>
+        <v>1.4400000000000002</v>
+      </c>
+      <c r="H7" s="236" t="str">
+        <f>IF(F7&gt;=G7,"Correcto","Incorrecto")</f>
+        <v>Correcto</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="226" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="228"/>
+    </row>
+    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="3">
-        <v>25</v>
-      </c>
-      <c r="D18" s="3">
-        <v>78.209999999999994</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4">
-        <f>C18*D18</f>
-        <v>1955.2499999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2">
-        <f t="shared" ref="F19:F25" si="1">C19*D19</f>
-        <v>357.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="1">
-        <v>35</v>
-      </c>
-      <c r="D20" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>500.5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="1">
-        <v>120</v>
-      </c>
-      <c r="D21" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>1716</v>
-      </c>
-      <c r="I21">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1">
-        <v>250</v>
-      </c>
-      <c r="D22" s="1">
-        <v>22.605</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>5651.25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="1">
-        <v>240</v>
-      </c>
-      <c r="D23" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="1">
-        <v>504</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6.85</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2">
-        <f t="shared" si="1"/>
-        <v>3452.3999999999996</v>
-      </c>
-      <c r="I24">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="56">
-        <v>384</v>
-      </c>
-      <c r="D25" s="56">
-        <v>6</v>
-      </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57">
-        <f t="shared" si="1"/>
-        <v>2304</v>
-      </c>
-      <c r="I25">
-        <v>2810</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="58">
-        <f>SUM(F18:F25)</f>
-        <v>19368.900000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H28" s="142" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="143"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="144"/>
-    </row>
-    <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H29" s="52" t="s">
+      <c r="C9" s="229" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" s="229" t="s">
+        <v>391</v>
+      </c>
+      <c r="E9" s="229" t="s">
+        <v>391</v>
+      </c>
+      <c r="F9" s="229" t="s">
+        <v>377</v>
+      </c>
+      <c r="G9" s="229" t="s">
+        <v>375</v>
+      </c>
+      <c r="H9" s="231"/>
+    </row>
+    <row r="10" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="241"/>
+      <c r="C10" s="225" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" s="225" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" s="225" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" s="225" t="s">
+        <v>379</v>
+      </c>
+      <c r="G10" s="225" t="s">
+        <v>376</v>
+      </c>
+      <c r="H10" s="233" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="232" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" s="224">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="224">
+        <f>0.3*C11</f>
+        <v>0.18</v>
+      </c>
+      <c r="E11" s="224">
+        <f>10*2.54/100</f>
+        <v>0.254</v>
+      </c>
+      <c r="F11" s="224">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="224">
+        <f>MIN(D11,E11)</f>
+        <v>0.18</v>
+      </c>
+      <c r="H11" s="234" t="str">
+        <f>IF(F11&gt;=G11,"Correcto","Incorrecto")</f>
+        <v>Correcto</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="235" t="s">
+        <v>365</v>
+      </c>
+      <c r="C12" s="230">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="230">
+        <f>0.3*C12</f>
+        <v>0.12</v>
+      </c>
+      <c r="E12" s="230">
+        <f>E11</f>
+        <v>0.254</v>
+      </c>
+      <c r="F12" s="230">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="230">
+        <f>MIN(D12,E12)</f>
+        <v>0.12</v>
+      </c>
+      <c r="H12" s="236" t="str">
+        <f>IF(F12&gt;=G12,"Correcto","Incorrecto")</f>
+        <v>Correcto</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="226" t="s">
+        <v>387</v>
+      </c>
+      <c r="C13" s="227"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="227"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="228"/>
+    </row>
+    <row r="14" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="L29" s="52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H30" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="I30" s="3">
-        <v>500</v>
-      </c>
-      <c r="J30" s="3">
-        <v>14.3</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="4">
-        <f>I30*J30</f>
-        <v>7150</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H31" s="54" t="s">
-        <v>331</v>
-      </c>
-      <c r="I31" s="1">
-        <v>500</v>
-      </c>
-      <c r="J31" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="2">
-        <f>I31*J31</f>
-        <v>7150</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H32" s="54" t="s">
-        <v>332</v>
-      </c>
-      <c r="I32" s="1">
-        <v>500</v>
-      </c>
-      <c r="J32" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="2">
-        <f>I32*J32</f>
-        <v>7150</v>
-      </c>
-    </row>
-    <row r="33" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K33" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="L33" s="58">
-        <f>SUM(L30:L32)</f>
-        <v>21450</v>
-      </c>
-    </row>
-    <row r="35" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H35" t="s">
-        <v>122</v>
-      </c>
-      <c r="I35">
-        <f>(3*F14)*1.6</f>
-        <v>92970.720000000016</v>
-      </c>
-      <c r="J35" t="s">
-        <v>121</v>
-      </c>
-      <c r="K35">
-        <f>I35+I36</f>
-        <v>129435.72000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H36" t="s">
-        <v>123</v>
-      </c>
-      <c r="I36">
-        <f>L33*1.7</f>
-        <v>36465</v>
-      </c>
-    </row>
-    <row r="37" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H37" t="s">
-        <v>94</v>
-      </c>
-      <c r="I37">
-        <f>(K35/((0.8)*((0.85*(1-I21)*I24)+(I21*I25))))</f>
-        <v>570.18131519594033</v>
-      </c>
-    </row>
-    <row r="38" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="I38">
-        <f>SQRT(I37)</f>
-        <v>23.878469699625651</v>
+      <c r="C14" s="229" t="s">
+        <v>382</v>
+      </c>
+      <c r="D14" s="229" t="s">
+        <v>391</v>
+      </c>
+      <c r="E14" s="229" t="s">
+        <v>391</v>
+      </c>
+      <c r="F14" s="229" t="s">
+        <v>377</v>
+      </c>
+      <c r="G14" s="229" t="s">
+        <v>375</v>
+      </c>
+      <c r="H14" s="231"/>
+    </row>
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="241"/>
+      <c r="C15" s="225" t="s">
+        <v>383</v>
+      </c>
+      <c r="D15" s="225" t="s">
+        <v>380</v>
+      </c>
+      <c r="E15" s="225" t="s">
+        <v>381</v>
+      </c>
+      <c r="F15" s="225" t="s">
+        <v>379</v>
+      </c>
+      <c r="G15" s="225" t="s">
+        <v>376</v>
+      </c>
+      <c r="H15" s="233" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="232" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="224">
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="224">
+        <v>0.4</v>
+      </c>
+      <c r="E16" s="224">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="224">
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="224">
+        <f>MIN(D16,E16)</f>
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="234" t="str">
+        <f>IF(F16&lt;=G16,"Correcto","Incorrecto")</f>
+        <v>Correcto</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="237" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="238">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="238">
+        <f>D16</f>
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="238">
+        <f>E16</f>
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="238">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="238">
+        <f>MIN(D17,E17)</f>
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="239" t="str">
+        <f>IF(F17&lt;=G17,"Correcto","Incorrecto")</f>
+        <v>Correcto</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="H28:L28"/>
+  <mergeCells count="7">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
